--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_38.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2051927.545195869</v>
+        <v>2059790.092927652</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2999618.213667039</v>
+        <v>2999263.661535215</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11049707.7129631</v>
+        <v>11051831.48796378</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6009758.629019479</v>
+        <v>6009476.29911653</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="H11" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="G11" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="H11" t="n">
-        <v>22.56635248423083</v>
       </c>
       <c r="I11" t="n">
         <v>25.62029119463083</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>22.56635248423083</v>
+      </c>
+      <c r="H12" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="H12" t="n">
-        <v>22.56635248423083</v>
       </c>
       <c r="I12" t="n">
         <v>25.62029119463083</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>10.28755987289279</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H13" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="I13" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>25.62029119463083</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>10.28755987289279</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H14" t="n">
-        <v>22.56635248423083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I14" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,16 +1734,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>22.56635248423083</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1774,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G16" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J16" t="n">
-        <v>22.56635248423083</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>83.40819852673224</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>83.40819852673224</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>83.28282224207027</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>83.28282224207027</v>
       </c>
       <c r="V17" t="n">
-        <v>73.46594126234574</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>83.28282224207027</v>
       </c>
       <c r="X17" t="n">
-        <v>83.40819852673224</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>73.35550983081545</v>
       </c>
     </row>
     <row r="18">
@@ -1926,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>83.28282224207027</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>83.28282224207027</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>83.28282224207027</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>73.35550983081545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>83.40819852673224</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>83.40819852673224</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>83.40819852673224</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>73.46594126234571</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>73.46594126234574</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.40819852673224</v>
+        <v>83.28282224207027</v>
       </c>
       <c r="I19" t="n">
-        <v>83.40819852673224</v>
+        <v>73.35550983081545</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>83.28282224207027</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>83.40819852673224</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>83.28282224207027</v>
       </c>
     </row>
     <row r="20">
@@ -2084,70 +2084,70 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>171.9080840410763</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>40.37730160236578</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.9653781205377</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>134.1406934589861</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>108.9599999403386</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>50.82882732208542</v>
+        <v>50.91156722711489</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>133.1981054795376</v>
       </c>
       <c r="T21" t="n">
-        <v>74.94610582109743</v>
+        <v>161.6796630705214</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>187.4563164566746</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>194.3155215251251</v>
       </c>
       <c r="W21" t="n">
-        <v>213.1271776315899</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>167.2051796741478</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>167.1148902479747</v>
+        <v>98.80707857710698</v>
       </c>
     </row>
     <row r="22">
@@ -2242,25 +2242,25 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>24.36078194440207</v>
       </c>
       <c r="E22" t="n">
-        <v>51.62453773302292</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>106.8532424936016</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>129.4231738291291</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>116.9654093029581</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>54.87411449237258</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.59423772236473</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>138.8083257528693</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>98.31936642938386</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>170.4522640569157</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>184.5280440348017</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>126.4260899387473</v>
       </c>
       <c r="C24" t="n">
-        <v>134.1406934589861</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>73.75037861219627</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>39.24884333995459</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>187.3735765516452</v>
+        <v>187.4563164566746</v>
       </c>
       <c r="V24" t="n">
-        <v>194.2327816200956</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>213.1271776315899</v>
+        <v>213.2099175366194</v>
       </c>
       <c r="X24" t="n">
-        <v>167.2051796741478</v>
+        <v>167.2879195791773</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>167.1976301530042</v>
       </c>
     </row>
     <row r="25">
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>155.4783439553532</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>147.7840417278651</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>187.2245897647369</v>
       </c>
       <c r="Y25" t="n">
-        <v>180.0168478227651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>58.38635869728412</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>153.8990269461579</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>117.5874563482283</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>92.32402292455134</v>
       </c>
       <c r="E27" t="n">
-        <v>102.3585580052547</v>
+        <v>102.5240378153135</v>
       </c>
       <c r="F27" t="n">
-        <v>50.52047386980926</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>82.05699471306434</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>56.94892178635018</v>
+        <v>57.11440159640905</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>116.5621284637504</v>
       </c>
       <c r="T27" t="n">
-        <v>144.8782062446753</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>170.6548596308285</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>177.514064699279</v>
+        <v>148.0026094275594</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>150.6519425633901</v>
       </c>
       <c r="Y27" t="n">
-        <v>150.3961733271581</v>
+        <v>150.561653137217</v>
       </c>
     </row>
     <row r="28">
@@ -2722,19 +2722,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>90.13452557278495</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>112.7044569083125</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>29.60150745310017</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>38.07265766652649</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>4.419601551396237</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>197.0166006837406</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>231.4019556965036</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>163.2981309019485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,16 +2792,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>81.19872045110694</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>240.4402078430554</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>137.1028191302088</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>234.9981349397854</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>212.8594666780458</v>
       </c>
       <c r="Y29" t="n">
         <v>241.0142888776591</v>
@@ -2868,22 +2868,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>52.2903498722397</v>
+        <v>52.29034987223974</v>
       </c>
       <c r="C30" t="n">
-        <v>58.4656652106881</v>
+        <v>58.46566521068814</v>
       </c>
       <c r="D30" t="n">
-        <v>33.20223178701112</v>
+        <v>33.20223178701116</v>
       </c>
       <c r="E30" t="n">
-        <v>43.40224667777331</v>
+        <v>43.40224667777335</v>
       </c>
       <c r="F30" t="n">
-        <v>30.82637861575624</v>
+        <v>30.82637861575628</v>
       </c>
       <c r="G30" t="n">
-        <v>23.100683385583</v>
+        <v>23.10068338558304</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.44033732621021</v>
+        <v>57.44033732621033</v>
       </c>
       <c r="T30" t="n">
-        <v>85.92189491719397</v>
+        <v>85.92189491719401</v>
       </c>
       <c r="U30" t="n">
         <v>111.6985483033472</v>
       </c>
       <c r="V30" t="n">
-        <v>118.5577533717976</v>
+        <v>118.5577533717977</v>
       </c>
       <c r="W30" t="n">
         <v>137.452149383292</v>
       </c>
       <c r="X30" t="n">
-        <v>91.53015142584984</v>
+        <v>91.53015142584988</v>
       </c>
       <c r="Y30" t="n">
-        <v>91.43986199967672</v>
+        <v>91.43986199967676</v>
       </c>
     </row>
     <row r="31">
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>53.0039873210002</v>
+        <v>53.00398732100024</v>
       </c>
       <c r="D31" t="n">
-        <v>34.37263924058472</v>
+        <v>34.37263924058476</v>
       </c>
       <c r="E31" t="n">
-        <v>32.19112886894153</v>
+        <v>32.19112886894158</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>31.17821424530365</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.98433872981194</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.20764114963065</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +2998,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>59.57507800895617</v>
+        <v>109.7737642593447</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0761955788632</v>
+        <v>172.0761955788633</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>7.815079383749651</v>
       </c>
       <c r="W31" t="n">
-        <v>172.2801645589633</v>
+        <v>172.2801645589634</v>
       </c>
       <c r="X31" t="n">
-        <v>111.4668216114095</v>
+        <v>111.4668216114096</v>
       </c>
       <c r="Y31" t="n">
         <v>104.3418195744672</v>
@@ -3032,19 +3032,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>240.4402078430554</v>
       </c>
       <c r="E32" t="n">
-        <v>228.0677061829616</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.8594666780458</v>
       </c>
       <c r="H32" t="n">
-        <v>225.2319683381395</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>52.29034987223972</v>
+        <v>52.29034987223974</v>
       </c>
       <c r="C33" t="n">
-        <v>58.46566521068812</v>
+        <v>58.46566521068814</v>
       </c>
       <c r="D33" t="n">
-        <v>33.20223178701113</v>
+        <v>33.20223178701116</v>
       </c>
       <c r="E33" t="n">
-        <v>43.40224667777332</v>
+        <v>43.40224667777335</v>
       </c>
       <c r="F33" t="n">
-        <v>30.82637861575625</v>
+        <v>30.82637861575628</v>
       </c>
       <c r="G33" t="n">
-        <v>23.10068338558301</v>
+        <v>23.10068338558289</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.44033732621021</v>
+        <v>57.44033732621023</v>
       </c>
       <c r="T33" t="n">
-        <v>85.92189491719398</v>
+        <v>85.92189491719401</v>
       </c>
       <c r="U33" t="n">
         <v>111.6985483033472</v>
       </c>
       <c r="V33" t="n">
-        <v>118.5577533717976</v>
+        <v>118.5577533717977</v>
       </c>
       <c r="W33" t="n">
         <v>137.452149383292</v>
       </c>
       <c r="X33" t="n">
-        <v>91.53015142584985</v>
+        <v>91.53015142584988</v>
       </c>
       <c r="Y33" t="n">
-        <v>91.43986199967674</v>
+        <v>91.43986199967676</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.58914640430967</v>
+        <v>65.5891464043097</v>
       </c>
       <c r="C34" t="n">
-        <v>51.68614806507047</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>34.37263924058473</v>
+        <v>5.893229615185659</v>
       </c>
       <c r="E34" t="n">
-        <v>32.19112886894155</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>31.17821424530362</v>
+        <v>31.17821424530365</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>53.74814558083116</v>
       </c>
       <c r="H34" t="n">
-        <v>47.98433872981195</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.20764114963066</v>
+        <v>41.20764114963069</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>63.05055759954189</v>
       </c>
       <c r="S34" t="n">
-        <v>109.7737642593446</v>
+        <v>109.7737642593447</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>172.0761955788633</v>
       </c>
       <c r="V34" t="n">
-        <v>137.8948095462004</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>172.2801645589634</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.3418195744672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>215.3939976830283</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="D35" t="n">
-        <v>215.3939976830283</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>215.3939976830283</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>189.7190331592112</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3345,19 +3345,19 @@
         <v>54.29773941337088</v>
       </c>
       <c r="C36" t="n">
-        <v>40.67709512275209</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F36" t="n">
         <v>32.83376815688742</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>87.92928445832514</v>
       </c>
       <c r="U36" t="n">
-        <v>113.7059378444784</v>
+        <v>23.39226906979248</v>
       </c>
       <c r="V36" t="n">
         <v>120.5651429129288</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>34.19851841007271</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
-        <v>12.80539074782973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>35.16617388149083</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S37" t="n">
-        <v>111.7811538004758</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>115.710145191785</v>
@@ -3481,13 +3481,13 @@
         <v>174.0835851199944</v>
       </c>
       <c r="V37" t="n">
-        <v>139.9021990873316</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>215.3939976830283</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,13 +3512,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>215.3939976830283</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.63367370465322</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>139.11020867134</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="W38" t="n">
-        <v>215.3939976830283</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>91.19946604440665</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.97515078321792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>54.29773941337088</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E39" t="n">
         <v>45.40963621890448</v>
@@ -3633,7 +3633,7 @@
         <v>59.44772686734136</v>
       </c>
       <c r="T39" t="n">
-        <v>83.19674336217273</v>
+        <v>34.16766273347027</v>
       </c>
       <c r="U39" t="n">
         <v>113.7059378444784</v>
@@ -3664,19 +3664,19 @@
         <v>55.01137686213137</v>
       </c>
       <c r="D40" t="n">
-        <v>36.38002878171589</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>34.19851841007271</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>33.18560378643478</v>
       </c>
       <c r="G40" t="n">
-        <v>55.7555351219623</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>11.17243087847907</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.05794714067302</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>71.46375431186243</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W40" t="n">
         <v>174.2875541000946</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>157.7314666355888</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>157.7314666355888</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>157.7314666355888</v>
       </c>
       <c r="E41" t="n">
-        <v>157.6060903509269</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>157.6060903509269</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>138.9298758126264</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>157.6060903509269</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>138.8194443810963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>46.09475495247762</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>87.0997309821513</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>55.01862068396331</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>72.0363124492365</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>140.4153539798398</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>147.2745590482903</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>157.6060903509269</v>
+        <v>157.7314666355888</v>
       </c>
       <c r="X42" t="n">
-        <v>120.2469571023424</v>
+        <v>120.164217197313</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>120.0739277711399</v>
       </c>
     </row>
     <row r="43">
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>59.81228001676681</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>76.61840450127514</v>
       </c>
       <c r="I43" t="n">
-        <v>15.51540346903951</v>
+        <v>69.84170692109385</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>138.4905699358372</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>142.4195613271465</v>
+        <v>115.144532298738</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>157.7314666355888</v>
       </c>
       <c r="V43" t="n">
-        <v>157.6060903509269</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>157.6060903509269</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>132.9758853459304</v>
       </c>
     </row>
     <row r="44">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C11" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D11" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E11" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F11" t="n">
         <v>76.6020827637447</v>
       </c>
       <c r="G11" t="n">
-        <v>50.72300074896609</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H11" t="n">
         <v>27.92870531034908</v>
@@ -5045,13 +5045,13 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M11" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N11" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O11" t="n">
         <v>77.1170764958388</v>
@@ -5063,28 +5063,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S11" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T11" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U11" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V11" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W11" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X11" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C12" t="n">
         <v>76.6020827637447</v>
@@ -5109,7 +5109,7 @@
         <v>76.6020827637447</v>
       </c>
       <c r="G12" t="n">
-        <v>50.72300074896609</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H12" t="n">
         <v>27.92870531034908</v>
@@ -5121,10 +5121,10 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L12" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M12" t="n">
         <v>27.41371157825499</v>
@@ -5133,7 +5133,7 @@
         <v>27.41371157825499</v>
       </c>
       <c r="O12" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P12" t="n">
         <v>77.1170764958388</v>
@@ -5142,28 +5142,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y12" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.0896901594397</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C13" t="n">
-        <v>92.0896901594397</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D13" t="n">
-        <v>92.0896901594397</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E13" t="n">
-        <v>92.0896901594397</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F13" t="n">
         <v>92.0896901594397</v>
       </c>
       <c r="G13" t="n">
-        <v>92.0896901594397</v>
+        <v>66.21060814466108</v>
       </c>
       <c r="H13" t="n">
-        <v>66.21060814466108</v>
+        <v>40.33152612988246</v>
       </c>
       <c r="I13" t="n">
         <v>40.33152612988246</v>
@@ -5233,16 +5233,16 @@
         <v>102.4811647785233</v>
       </c>
       <c r="V13" t="n">
-        <v>92.0896901594397</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W13" t="n">
-        <v>92.0896901594397</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X13" t="n">
-        <v>92.0896901594397</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.0896901594397</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C14" t="n">
-        <v>102.4811647785233</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D14" t="n">
-        <v>102.4811647785233</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="E14" t="n">
-        <v>102.4811647785233</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="F14" t="n">
-        <v>76.6020827637447</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="G14" t="n">
-        <v>50.72300074896609</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H14" t="n">
-        <v>27.92870531034908</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I14" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J14" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K14" t="n">
-        <v>2.049623295570466</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L14" t="n">
-        <v>2.049623295570466</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M14" t="n">
-        <v>27.41371157825499</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N14" t="n">
-        <v>52.77779986093951</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O14" t="n">
-        <v>78.14188814362403</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P14" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q14" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R14" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S14" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T14" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U14" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V14" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W14" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X14" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.049623295570466</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C15" t="n">
-        <v>2.049623295570466</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D15" t="n">
-        <v>2.049623295570466</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E15" t="n">
-        <v>2.049623295570466</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F15" t="n">
-        <v>2.049623295570466</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G15" t="n">
-        <v>2.049623295570466</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H15" t="n">
-        <v>2.049623295570466</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I15" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J15" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K15" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L15" t="n">
-        <v>27.41371157825499</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M15" t="n">
-        <v>52.77779986093951</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N15" t="n">
-        <v>52.77779986093951</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="O15" t="n">
-        <v>78.14188814362403</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P15" t="n">
-        <v>102.4811647785233</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R15" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S15" t="n">
-        <v>76.6020827637447</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T15" t="n">
-        <v>50.72300074896609</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U15" t="n">
-        <v>24.84391873418747</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V15" t="n">
-        <v>2.049623295570466</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W15" t="n">
-        <v>2.049623295570466</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X15" t="n">
-        <v>2.049623295570466</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.049623295570466</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="F16" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="G16" t="n">
-        <v>76.6020827637447</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="H16" t="n">
-        <v>50.72300074896609</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="I16" t="n">
-        <v>24.84391873418747</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="J16" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K16" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L16" t="n">
-        <v>27.41371157825499</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M16" t="n">
-        <v>52.77779986093951</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N16" t="n">
-        <v>78.14188814362404</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O16" t="n">
-        <v>102.4811647785233</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>175.1740670472542</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="C17" t="n">
-        <v>90.9233614646964</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="D17" t="n">
-        <v>90.9233614646964</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="E17" t="n">
-        <v>90.9233614646964</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="F17" t="n">
-        <v>6.672655882138579</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="G17" t="n">
-        <v>6.672655882138579</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="H17" t="n">
-        <v>6.672655882138579</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="I17" t="n">
-        <v>6.672655882138579</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="J17" t="n">
-        <v>6.672655882138579</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="K17" t="n">
-        <v>89.2467724236035</v>
+        <v>89.11261979901519</v>
       </c>
       <c r="L17" t="n">
-        <v>171.8208889650684</v>
+        <v>171.5626138186648</v>
       </c>
       <c r="M17" t="n">
-        <v>251.058677565464</v>
+        <v>250.6812949486315</v>
       </c>
       <c r="N17" t="n">
-        <v>251.058677565464</v>
+        <v>250.6812949486315</v>
       </c>
       <c r="O17" t="n">
-        <v>333.6327941069289</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="P17" t="n">
-        <v>333.6327941069289</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="Q17" t="n">
-        <v>333.6327941069289</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="R17" t="n">
-        <v>333.6327941069289</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="S17" t="n">
-        <v>333.6327941069289</v>
+        <v>249.007226097503</v>
       </c>
       <c r="T17" t="n">
-        <v>333.6327941069289</v>
+        <v>249.007226097503</v>
       </c>
       <c r="U17" t="n">
-        <v>333.6327941069289</v>
+        <v>164.8831632267249</v>
       </c>
       <c r="V17" t="n">
-        <v>259.424772629812</v>
+        <v>164.8831632267249</v>
       </c>
       <c r="W17" t="n">
-        <v>259.424772629812</v>
+        <v>80.7591003559469</v>
       </c>
       <c r="X17" t="n">
-        <v>175.1740670472542</v>
+        <v>80.7591003559469</v>
       </c>
       <c r="Y17" t="n">
-        <v>175.1740670472542</v>
+        <v>6.662625779365621</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.672655882138579</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="C18" t="n">
-        <v>6.672655882138579</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="D18" t="n">
-        <v>6.672655882138579</v>
+        <v>249.007226097503</v>
       </c>
       <c r="E18" t="n">
-        <v>6.672655882138579</v>
+        <v>164.8831632267249</v>
       </c>
       <c r="F18" t="n">
-        <v>6.672655882138579</v>
+        <v>164.8831632267249</v>
       </c>
       <c r="G18" t="n">
-        <v>6.672655882138579</v>
+        <v>80.7591003559469</v>
       </c>
       <c r="H18" t="n">
-        <v>6.672655882138579</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="I18" t="n">
-        <v>6.672655882138579</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="J18" t="n">
-        <v>6.672655882138579</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="K18" t="n">
-        <v>89.2467724236035</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="L18" t="n">
-        <v>89.2467724236035</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="M18" t="n">
-        <v>171.8208889650684</v>
+        <v>16.38674839600307</v>
       </c>
       <c r="N18" t="n">
-        <v>254.3950055065334</v>
+        <v>98.83674241565264</v>
       </c>
       <c r="O18" t="n">
-        <v>333.6327941069289</v>
+        <v>181.2867364353022</v>
       </c>
       <c r="P18" t="n">
-        <v>333.6327941069289</v>
+        <v>263.7367304549518</v>
       </c>
       <c r="Q18" t="n">
-        <v>333.6327941069289</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="R18" t="n">
-        <v>333.6327941069289</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="S18" t="n">
-        <v>249.3820885243711</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="T18" t="n">
-        <v>165.1313829418133</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="U18" t="n">
-        <v>80.88067735925547</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="V18" t="n">
-        <v>6.672655882138579</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="W18" t="n">
-        <v>6.672655882138579</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="X18" t="n">
-        <v>6.672655882138579</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.672655882138579</v>
+        <v>333.1312889682811</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>249.3820885243711</v>
+        <v>164.8831632267249</v>
       </c>
       <c r="C19" t="n">
-        <v>249.3820885243711</v>
+        <v>164.8831632267249</v>
       </c>
       <c r="D19" t="n">
-        <v>249.3820885243711</v>
+        <v>164.8831632267249</v>
       </c>
       <c r="E19" t="n">
-        <v>249.3820885243711</v>
+        <v>164.8831632267249</v>
       </c>
       <c r="F19" t="n">
-        <v>249.3820885243711</v>
+        <v>164.8831632267249</v>
       </c>
       <c r="G19" t="n">
-        <v>175.1740670472542</v>
+        <v>164.8831632267249</v>
       </c>
       <c r="H19" t="n">
-        <v>90.9233614646964</v>
+        <v>80.7591003559469</v>
       </c>
       <c r="I19" t="n">
-        <v>6.672655882138579</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="J19" t="n">
-        <v>6.672655882138579</v>
+        <v>6.662625779365621</v>
       </c>
       <c r="K19" t="n">
-        <v>20.82067080283105</v>
+        <v>20.72872819407894</v>
       </c>
       <c r="L19" t="n">
-        <v>84.32960763886058</v>
+        <v>84.1557525241293</v>
       </c>
       <c r="M19" t="n">
-        <v>159.7124576593993</v>
+        <v>159.4566900386889</v>
       </c>
       <c r="N19" t="n">
-        <v>239.5981201431521</v>
+        <v>239.2604400164625</v>
       </c>
       <c r="O19" t="n">
-        <v>300.1322086063679</v>
+        <v>299.7126159736991</v>
       </c>
       <c r="P19" t="n">
-        <v>333.6327941069289</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="Q19" t="n">
-        <v>333.6327941069289</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="R19" t="n">
-        <v>333.6327941069289</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="S19" t="n">
-        <v>333.6327941069289</v>
+        <v>333.1312889682811</v>
       </c>
       <c r="T19" t="n">
-        <v>333.6327941069289</v>
+        <v>249.007226097503</v>
       </c>
       <c r="U19" t="n">
-        <v>333.6327941069289</v>
+        <v>249.007226097503</v>
       </c>
       <c r="V19" t="n">
-        <v>333.6327941069289</v>
+        <v>249.007226097503</v>
       </c>
       <c r="W19" t="n">
-        <v>249.3820885243711</v>
+        <v>249.007226097503</v>
       </c>
       <c r="X19" t="n">
-        <v>249.3820885243711</v>
+        <v>249.007226097503</v>
       </c>
       <c r="Y19" t="n">
-        <v>249.3820885243711</v>
+        <v>164.8831632267249</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>923.2720023769334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>923.2720023769334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>679.8232257328334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>679.8232257328334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>679.8232257328334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>436.3744490887333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>192.9256724446332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5786,16 +5786,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>923.2720023769334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>923.2720023769334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>923.2720023769334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>923.2720023769334</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>206.1190428890729</v>
+        <v>180.7675745924889</v>
       </c>
       <c r="C21" t="n">
-        <v>70.62339293050104</v>
+        <v>180.7675745924889</v>
       </c>
       <c r="D21" t="n">
-        <v>70.62339293050104</v>
+        <v>70.70696859214695</v>
       </c>
       <c r="E21" t="n">
-        <v>70.62339293050104</v>
+        <v>70.70696859214695</v>
       </c>
       <c r="F21" t="n">
-        <v>70.62339293050104</v>
+        <v>70.70696859214695</v>
       </c>
       <c r="G21" t="n">
-        <v>70.62339293050104</v>
+        <v>70.70696859214695</v>
       </c>
       <c r="H21" t="n">
-        <v>70.62339293050104</v>
+        <v>70.70696859214695</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5835,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5136146222144</v>
       </c>
       <c r="T21" t="n">
-        <v>888.3540183176085</v>
+        <v>666.2008236418897</v>
       </c>
       <c r="U21" t="n">
-        <v>888.3540183176085</v>
+        <v>476.8510090391879</v>
       </c>
       <c r="V21" t="n">
-        <v>888.3540183176085</v>
+        <v>280.5727044683546</v>
       </c>
       <c r="W21" t="n">
-        <v>673.074040911962</v>
+        <v>280.5727044683546</v>
       </c>
       <c r="X21" t="n">
-        <v>504.1799200289844</v>
+        <v>280.5727044683546</v>
       </c>
       <c r="Y21" t="n">
-        <v>335.3770005865857</v>
+        <v>180.7675745924889</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>310.0901876109739</v>
+        <v>217.4632701200438</v>
       </c>
       <c r="C22" t="n">
-        <v>310.0901876109739</v>
+        <v>217.4632701200438</v>
       </c>
       <c r="D22" t="n">
-        <v>310.0901876109739</v>
+        <v>192.8564196711528</v>
       </c>
       <c r="E22" t="n">
-        <v>257.9441899008498</v>
+        <v>192.8564196711528</v>
       </c>
       <c r="F22" t="n">
-        <v>150.0116217254946</v>
+        <v>192.8564196711528</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>192.8564196711528</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>192.8564196711528</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>74.70954158735675</v>
       </c>
       <c r="J22" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>35.41647367662506</v>
+        <v>35.33456117064589</v>
       </c>
       <c r="L22" t="n">
-        <v>100.9127261583744</v>
+        <v>100.748901146416</v>
       </c>
       <c r="M22" t="n">
-        <v>178.2828918246329</v>
+        <v>178.0371543066954</v>
       </c>
       <c r="N22" t="n">
-        <v>260.1558699541056</v>
+        <v>259.8282199301889</v>
       </c>
       <c r="O22" t="n">
-        <v>322.6772740630412</v>
+        <v>322.2677115331454</v>
       </c>
       <c r="P22" t="n">
-        <v>358.1651752093222</v>
+        <v>357.6737001734471</v>
       </c>
       <c r="Q22" t="n">
-        <v>310.0901876109739</v>
+        <v>357.6737001734471</v>
       </c>
       <c r="R22" t="n">
-        <v>310.0901876109739</v>
+        <v>217.4632701200438</v>
       </c>
       <c r="S22" t="n">
-        <v>310.0901876109739</v>
+        <v>217.4632701200438</v>
       </c>
       <c r="T22" t="n">
-        <v>310.0901876109739</v>
+        <v>217.4632701200438</v>
       </c>
       <c r="U22" t="n">
-        <v>310.0901876109739</v>
+        <v>217.4632701200438</v>
       </c>
       <c r="V22" t="n">
-        <v>310.0901876109739</v>
+        <v>217.4632701200438</v>
       </c>
       <c r="W22" t="n">
-        <v>310.0901876109739</v>
+        <v>217.4632701200438</v>
       </c>
       <c r="X22" t="n">
-        <v>310.0901876109739</v>
+        <v>217.4632701200438</v>
       </c>
       <c r="Y22" t="n">
-        <v>310.0901876109739</v>
+        <v>217.4632701200438</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>118.5936344530247</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -5987,7 +5987,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6014,25 +6014,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>791.8831514127417</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>605.4911877412248</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>605.4911877412248</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>362.0424110971248</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>362.0424110971248</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>362.0424110971248</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>118.5936344530247</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>154.7767930687845</v>
+        <v>93.77647504172411</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>93.77647504172411</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>93.77647504172411</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>93.77647504172411</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>93.77647504172411</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>93.77647504172411</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6072,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>924.4118592076518</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>924.4118592076518</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>735.1456202665961</v>
+        <v>774.7073409079345</v>
       </c>
       <c r="V24" t="n">
-        <v>538.9508913574086</v>
+        <v>774.7073409079345</v>
       </c>
       <c r="W24" t="n">
-        <v>323.6709139517621</v>
+        <v>559.3437878406421</v>
       </c>
       <c r="X24" t="n">
-        <v>154.7767930687845</v>
+        <v>390.3660912960186</v>
       </c>
       <c r="Y24" t="n">
-        <v>154.7767930687845</v>
+        <v>221.4795961919739</v>
       </c>
     </row>
     <row r="25">
@@ -6148,46 +6148,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>35.41647367662506</v>
+        <v>35.33456117064589</v>
       </c>
       <c r="L25" t="n">
-        <v>100.9127261583744</v>
+        <v>100.748901146416</v>
       </c>
       <c r="M25" t="n">
-        <v>178.2828918246329</v>
+        <v>178.0371543066954</v>
       </c>
       <c r="N25" t="n">
-        <v>260.1558699541056</v>
+        <v>259.8282199301889</v>
       </c>
       <c r="O25" t="n">
-        <v>322.6772740630412</v>
+        <v>322.2677115331454</v>
       </c>
       <c r="P25" t="n">
-        <v>358.1651752093222</v>
+        <v>357.6737001734471</v>
       </c>
       <c r="Q25" t="n">
-        <v>358.1651752093222</v>
+        <v>357.6737001734471</v>
       </c>
       <c r="R25" t="n">
-        <v>358.1651752093222</v>
+        <v>357.6737001734471</v>
       </c>
       <c r="S25" t="n">
-        <v>358.1651752093222</v>
+        <v>357.6737001734471</v>
       </c>
       <c r="T25" t="n">
-        <v>358.1651752093222</v>
+        <v>357.6737001734471</v>
       </c>
       <c r="U25" t="n">
-        <v>201.1163429311876</v>
+        <v>357.6737001734471</v>
       </c>
       <c r="V25" t="n">
-        <v>201.1163429311876</v>
+        <v>357.6737001734471</v>
       </c>
       <c r="W25" t="n">
-        <v>201.1163429311876</v>
+        <v>208.3968903473208</v>
       </c>
       <c r="X25" t="n">
-        <v>201.1163429311876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
         <v>19.28114311021272</v>
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>78.25726300645931</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>78.25726300645931</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>78.25726300645931</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>808.6035929387594</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>808.6035929387594</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>808.6035929387594</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>565.1548162946594</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>321.7060396505594</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>78.25726300645931</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>78.25726300645931</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>314.1144242965546</v>
+        <v>392.5638892561747</v>
       </c>
       <c r="C27" t="n">
-        <v>314.1144242965546</v>
+        <v>273.7886808236208</v>
       </c>
       <c r="D27" t="n">
-        <v>314.1144242965546</v>
+        <v>180.5320920109426</v>
       </c>
       <c r="E27" t="n">
-        <v>210.721941462964</v>
+        <v>76.97245785406025</v>
       </c>
       <c r="F27" t="n">
-        <v>159.691159776288</v>
+        <v>76.97245785406025</v>
       </c>
       <c r="G27" t="n">
-        <v>76.80530653076846</v>
+        <v>76.97245785406025</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6306,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>846.3176318098782</v>
       </c>
       <c r="T27" t="n">
-        <v>817.7155330412672</v>
+        <v>846.3176318098782</v>
       </c>
       <c r="U27" t="n">
-        <v>645.3368869495213</v>
+        <v>846.3176318098782</v>
       </c>
       <c r="V27" t="n">
-        <v>466.0297508896435</v>
+        <v>696.8200465295151</v>
       </c>
       <c r="W27" t="n">
-        <v>466.0297508896435</v>
+        <v>696.8200465295151</v>
       </c>
       <c r="X27" t="n">
-        <v>466.0297508896435</v>
+        <v>544.6463671725554</v>
       </c>
       <c r="Y27" t="n">
-        <v>314.1144242965546</v>
+        <v>392.5638892561747</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>292.5267467473078</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>292.5267467473078</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>292.5267467473078</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>292.5267467473078</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>201.4817714212624</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>87.63888565529015</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>57.7383730764011</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>57.7383730764011</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>51.96800342823352</v>
+        <v>51.80417841627524</v>
       </c>
       <c r="L28" t="n">
-        <v>134.0157856615913</v>
+        <v>133.6881356376747</v>
       </c>
       <c r="M28" t="n">
-        <v>227.9374810794583</v>
+        <v>227.4460060435835</v>
       </c>
       <c r="N28" t="n">
-        <v>326.3619889605395</v>
+        <v>325.7066889127063</v>
       </c>
       <c r="O28" t="n">
-        <v>405.4349228210835</v>
+        <v>404.6157977612921</v>
       </c>
       <c r="P28" t="n">
-        <v>457.4743537189729</v>
+        <v>456.4914036472233</v>
       </c>
       <c r="Q28" t="n">
-        <v>457.4743537189729</v>
+        <v>456.4914036472233</v>
       </c>
       <c r="R28" t="n">
-        <v>457.4743537189729</v>
+        <v>452.0271596559139</v>
       </c>
       <c r="S28" t="n">
-        <v>457.4743537189729</v>
+        <v>452.0271596559139</v>
       </c>
       <c r="T28" t="n">
-        <v>457.4743537189729</v>
+        <v>452.0271596559139</v>
       </c>
       <c r="U28" t="n">
-        <v>457.4743537189729</v>
+        <v>452.0271596559139</v>
       </c>
       <c r="V28" t="n">
-        <v>457.4743537189729</v>
+        <v>253.0204922986002</v>
       </c>
       <c r="W28" t="n">
-        <v>457.4743537189729</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>457.4743537189729</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>292.5267467473078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>101.3000526567854</v>
+        <v>505.5988165654799</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>505.5988165654799</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6494,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>825.5694594195162</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>825.5694594195162</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>588.1976059449855</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>344.7488293008855</v>
+        <v>749.0475932095799</v>
       </c>
       <c r="Y29" t="n">
-        <v>101.3000526567854</v>
+        <v>505.5988165654799</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>210.1874114706286</v>
+        <v>210.1874114706287</v>
       </c>
       <c r="C30" t="n">
-        <v>151.131183985085</v>
+        <v>151.1311839850852</v>
       </c>
       <c r="D30" t="n">
-        <v>117.5935761194174</v>
+        <v>117.5935761194175</v>
       </c>
       <c r="E30" t="n">
-        <v>73.7529229095453</v>
+        <v>73.75292290954539</v>
       </c>
       <c r="F30" t="n">
-        <v>42.61516673201373</v>
+        <v>42.61516673201378</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>906.0366127568885</v>
+        <v>906.0366127568884</v>
       </c>
       <c r="T30" t="n">
-        <v>819.246819911238</v>
+        <v>819.2468199112379</v>
       </c>
       <c r="U30" t="n">
-        <v>706.4200034432106</v>
+        <v>706.4200034432104</v>
       </c>
       <c r="V30" t="n">
-        <v>586.664697007051</v>
+        <v>586.6646970070512</v>
       </c>
       <c r="W30" t="n">
-        <v>447.824142074433</v>
+        <v>447.8241420744331</v>
       </c>
       <c r="X30" t="n">
         <v>355.3694436644837</v>
       </c>
       <c r="Y30" t="n">
-        <v>263.0059466951132</v>
+        <v>263.0059466951133</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>230.149562615232</v>
+        <v>171.5497993484251</v>
       </c>
       <c r="C31" t="n">
-        <v>176.6101814829085</v>
+        <v>118.0104182161016</v>
       </c>
       <c r="D31" t="n">
-        <v>141.8903438661563</v>
+        <v>83.29058059934931</v>
       </c>
       <c r="E31" t="n">
-        <v>109.3740520793467</v>
+        <v>50.77428881253964</v>
       </c>
       <c r="F31" t="n">
-        <v>109.3740520793467</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>109.3740520793467</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>60.90502305933459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>39.95596023455803</v>
+        <v>39.95596023455799</v>
       </c>
       <c r="K31" t="n">
-        <v>131.0095687667854</v>
+        <v>131.0095687667853</v>
       </c>
       <c r="L31" t="n">
-        <v>271.4240992143497</v>
+        <v>271.4240992143496</v>
       </c>
       <c r="M31" t="n">
-        <v>423.7125428464232</v>
+        <v>423.712542846423</v>
       </c>
       <c r="N31" t="n">
-        <v>580.5037989417109</v>
+        <v>580.5037989417107</v>
       </c>
       <c r="O31" t="n">
-        <v>717.9434810164615</v>
+        <v>717.9434810164613</v>
       </c>
       <c r="P31" t="n">
-        <v>828.3496601285574</v>
+        <v>828.3496601285572</v>
       </c>
       <c r="Q31" t="n">
-        <v>856.1496427492314</v>
+        <v>856.149642749231</v>
       </c>
       <c r="R31" t="n">
-        <v>856.1496427492314</v>
+        <v>856.149642749231</v>
       </c>
       <c r="S31" t="n">
-        <v>795.9727962755383</v>
+        <v>745.2670525882768</v>
       </c>
       <c r="T31" t="n">
-        <v>795.9727962755383</v>
+        <v>745.2670525882768</v>
       </c>
       <c r="U31" t="n">
-        <v>622.1584573069895</v>
+        <v>571.452713619728</v>
       </c>
       <c r="V31" t="n">
-        <v>622.1584573069895</v>
+        <v>563.5586940401829</v>
       </c>
       <c r="W31" t="n">
-        <v>448.1380890656124</v>
+        <v>389.5383257988057</v>
       </c>
       <c r="X31" t="n">
-        <v>335.5453399631785</v>
+        <v>276.9455766963717</v>
       </c>
       <c r="Y31" t="n">
-        <v>230.149562615232</v>
+        <v>171.5497993484251</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D32" t="n">
-        <v>964.0571555106362</v>
+        <v>721.1882586994692</v>
       </c>
       <c r="E32" t="n">
-        <v>733.6857351238064</v>
+        <v>477.7394820553691</v>
       </c>
       <c r="F32" t="n">
-        <v>490.2369584797062</v>
+        <v>234.2907054112691</v>
       </c>
       <c r="G32" t="n">
-        <v>246.7881818356062</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>210.1874114706288</v>
+        <v>210.1874114706287</v>
       </c>
       <c r="C33" t="n">
         <v>151.1311839850851</v>
       </c>
       <c r="D33" t="n">
-        <v>117.5935761194174</v>
+        <v>117.5935761194173</v>
       </c>
       <c r="E33" t="n">
-        <v>73.75292290954533</v>
+        <v>73.75292290954522</v>
       </c>
       <c r="F33" t="n">
-        <v>42.61516673201375</v>
+        <v>42.61516673201362</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,19 +6780,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6810,19 +6810,19 @@
         <v>819.246819911238</v>
       </c>
       <c r="U33" t="n">
-        <v>706.4200034432104</v>
+        <v>706.4200034432106</v>
       </c>
       <c r="V33" t="n">
-        <v>586.6646970070512</v>
+        <v>586.6646970070514</v>
       </c>
       <c r="W33" t="n">
-        <v>447.8241420744331</v>
+        <v>447.8241420744332</v>
       </c>
       <c r="X33" t="n">
         <v>355.3694436644838</v>
       </c>
       <c r="Y33" t="n">
-        <v>263.0059466951134</v>
+        <v>263.0059466951133</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>260.3115575539936</v>
+        <v>152.6419820909715</v>
       </c>
       <c r="C34" t="n">
-        <v>208.1033271852355</v>
+        <v>152.6419820909715</v>
       </c>
       <c r="D34" t="n">
-        <v>173.3834895684832</v>
+        <v>146.6892249039153</v>
       </c>
       <c r="E34" t="n">
-        <v>140.8671977816736</v>
+        <v>146.6892249039153</v>
       </c>
       <c r="F34" t="n">
-        <v>109.3740520793467</v>
+        <v>115.1960792015883</v>
       </c>
       <c r="G34" t="n">
-        <v>109.3740520793467</v>
+        <v>60.90502305933464</v>
       </c>
       <c r="H34" t="n">
-        <v>60.9050230593346</v>
+        <v>60.90502305933464</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>39.95596023455802</v>
+        <v>39.95596023455799</v>
       </c>
       <c r="K34" t="n">
         <v>131.0095687667853</v>
       </c>
       <c r="L34" t="n">
-        <v>271.4240992143497</v>
+        <v>271.4240992143496</v>
       </c>
       <c r="M34" t="n">
-        <v>423.7125428464232</v>
+        <v>423.712542846423</v>
       </c>
       <c r="N34" t="n">
-        <v>580.5037989417108</v>
+        <v>580.5037989417107</v>
       </c>
       <c r="O34" t="n">
-        <v>717.9434810164614</v>
+        <v>717.9434810164613</v>
       </c>
       <c r="P34" t="n">
-        <v>828.3496601285573</v>
+        <v>828.3496601285572</v>
       </c>
       <c r="Q34" t="n">
-        <v>856.1496427492311</v>
+        <v>856.149642749231</v>
       </c>
       <c r="R34" t="n">
-        <v>856.1496427492311</v>
+        <v>792.4622108305018</v>
       </c>
       <c r="S34" t="n">
-        <v>745.267052588277</v>
+        <v>681.5796206695476</v>
       </c>
       <c r="T34" t="n">
-        <v>745.267052588277</v>
+        <v>566.7283523355537</v>
       </c>
       <c r="U34" t="n">
-        <v>745.267052588277</v>
+        <v>392.9140133670049</v>
       </c>
       <c r="V34" t="n">
-        <v>605.9793661779736</v>
+        <v>392.9140133670049</v>
       </c>
       <c r="W34" t="n">
-        <v>431.9589979365965</v>
+        <v>218.8936451256278</v>
       </c>
       <c r="X34" t="n">
-        <v>431.9589979365965</v>
+        <v>218.8936451256278</v>
       </c>
       <c r="Y34" t="n">
-        <v>326.5632205886498</v>
+        <v>218.8936451256278</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>644.0062961027915</v>
+      </c>
+      <c r="C35" t="n">
+        <v>452.3709090732851</v>
+      </c>
+      <c r="D35" t="n">
         <v>234.8012144439637</v>
-      </c>
-      <c r="C35" t="n">
-        <v>234.8012144439637</v>
-      </c>
-      <c r="D35" t="n">
-        <v>17.23151981464226</v>
       </c>
       <c r="E35" t="n">
         <v>17.23151981464226</v>
@@ -6947,40 +6947,40 @@
         <v>513.5624350164212</v>
       </c>
       <c r="N35" t="n">
-        <v>622.720985297414</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O35" t="n">
-        <v>771.9159354400621</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P35" t="n">
-        <v>861.575990732113</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>861.575990732113</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>861.575990732113</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>861.575990732113</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T35" t="n">
-        <v>861.575990732113</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U35" t="n">
-        <v>861.575990732113</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V35" t="n">
-        <v>644.0062961027916</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W35" t="n">
-        <v>452.3709090732852</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X35" t="n">
-        <v>452.3709090732852</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y35" t="n">
-        <v>452.3709090732852</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>91.48491706680338</v>
+        <v>182.7108451220416</v>
       </c>
       <c r="C36" t="n">
-        <v>50.39694219533662</v>
+        <v>121.6269514333353</v>
       </c>
       <c r="D36" t="n">
-        <v>50.39694219533662</v>
+        <v>121.6269514333353</v>
       </c>
       <c r="E36" t="n">
-        <v>50.39694219533662</v>
+        <v>75.75863202030044</v>
       </c>
       <c r="F36" t="n">
-        <v>17.23151981464226</v>
+        <v>42.59320963960607</v>
       </c>
       <c r="G36" t="n">
         <v>17.23151981464226</v>
@@ -7017,49 +7017,49 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>17.23151981464226</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L36" t="n">
-        <v>39.21234000016835</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="M36" t="n">
-        <v>252.4523977063663</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="N36" t="n">
-        <v>465.6924554125643</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="O36" t="n">
-        <v>678.9325131187622</v>
+        <v>782.3092529910735</v>
       </c>
       <c r="P36" t="n">
-        <v>861.575990732113</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q36" t="n">
-        <v>861.575990732113</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>861.575990732113</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S36" t="n">
-        <v>801.5277817752026</v>
+        <v>801.5277817752025</v>
       </c>
       <c r="T36" t="n">
-        <v>712.7103227263893</v>
+        <v>712.7103227263892</v>
       </c>
       <c r="U36" t="n">
-        <v>597.8558400551991</v>
+        <v>689.0817681104372</v>
       </c>
       <c r="V36" t="n">
-        <v>476.0728674158771</v>
+        <v>567.2987954711152</v>
       </c>
       <c r="W36" t="n">
-        <v>335.2046462800961</v>
+        <v>426.4305743353343</v>
       </c>
       <c r="X36" t="n">
-        <v>240.7222816669839</v>
+        <v>331.9482097222222</v>
       </c>
       <c r="Y36" t="n">
-        <v>146.3311184944507</v>
+        <v>237.557046549689</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>115.2069111569105</v>
+        <v>120.817677469186</v>
       </c>
       <c r="C37" t="n">
-        <v>115.2069111569105</v>
+        <v>120.817677469186</v>
       </c>
       <c r="D37" t="n">
-        <v>115.2069111569105</v>
+        <v>120.817677469186</v>
       </c>
       <c r="E37" t="n">
-        <v>80.66295316693808</v>
+        <v>86.27371947921358</v>
       </c>
       <c r="F37" t="n">
-        <v>80.66295316693808</v>
+        <v>52.7529075737239</v>
       </c>
       <c r="G37" t="n">
-        <v>67.72821503781714</v>
+        <v>52.7529075737239</v>
       </c>
       <c r="H37" t="n">
-        <v>17.23151981464226</v>
+        <v>52.7529075737239</v>
       </c>
       <c r="I37" t="n">
         <v>17.23151981464226</v>
       </c>
       <c r="J37" t="n">
-        <v>35.91902129326771</v>
+        <v>35.9190212932677</v>
       </c>
       <c r="K37" t="n">
         <v>124.9853141797752</v>
@@ -7117,28 +7117,28 @@
         <v>838.2014942879018</v>
       </c>
       <c r="R37" t="n">
-        <v>838.2014942879018</v>
+        <v>772.4863961660099</v>
       </c>
       <c r="S37" t="n">
-        <v>725.2912379237848</v>
+        <v>772.4863961660099</v>
       </c>
       <c r="T37" t="n">
-        <v>608.4123033866282</v>
+        <v>655.6074616288532</v>
       </c>
       <c r="U37" t="n">
-        <v>432.5702982149166</v>
+        <v>479.7654564571417</v>
       </c>
       <c r="V37" t="n">
-        <v>291.2549456014505</v>
+        <v>479.7654564571417</v>
       </c>
       <c r="W37" t="n">
-        <v>115.2069111569105</v>
+        <v>303.7174220126017</v>
       </c>
       <c r="X37" t="n">
-        <v>115.2069111569105</v>
+        <v>189.0970067070051</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.2069111569105</v>
+        <v>189.0970067070051</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>234.8012144439637</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="C38" t="n">
-        <v>234.8012144439637</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="D38" t="n">
-        <v>234.8012144439637</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="E38" t="n">
-        <v>234.8012144439637</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="F38" t="n">
-        <v>17.23151981464226</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="G38" t="n">
-        <v>17.23151981464226</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="H38" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I38" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J38" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K38" t="n">
-        <v>23.55055379931815</v>
+        <v>107.2817095536563</v>
       </c>
       <c r="L38" t="n">
-        <v>203.6264053839767</v>
+        <v>287.3575611383148</v>
       </c>
       <c r="M38" t="n">
-        <v>416.8664630901747</v>
+        <v>498.6475821194843</v>
       </c>
       <c r="N38" t="n">
-        <v>622.720985297414</v>
+        <v>704.5021043267236</v>
       </c>
       <c r="O38" t="n">
-        <v>771.9159354400621</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P38" t="n">
-        <v>861.575990732113</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q38" t="n">
-        <v>861.575990732113</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R38" t="n">
-        <v>823.562178909231</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S38" t="n">
-        <v>823.562178909231</v>
+        <v>755.9348066413424</v>
       </c>
       <c r="T38" t="n">
-        <v>823.562178909231</v>
+        <v>755.9348066413424</v>
       </c>
       <c r="U38" t="n">
-        <v>683.0468166149481</v>
+        <v>755.9348066413424</v>
       </c>
       <c r="V38" t="n">
-        <v>683.0468166149481</v>
+        <v>540.3547423814001</v>
       </c>
       <c r="W38" t="n">
-        <v>465.4771219856266</v>
+        <v>540.3547423814001</v>
       </c>
       <c r="X38" t="n">
-        <v>465.4771219856266</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="Y38" t="n">
-        <v>452.3709090732852</v>
+        <v>448.2340696092722</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>96.26526160837145</v>
+        <v>192.7568506406536</v>
       </c>
       <c r="C39" t="n">
-        <v>96.26526160837145</v>
+        <v>131.6729569519472</v>
       </c>
       <c r="D39" t="n">
-        <v>96.26526160837145</v>
+        <v>96.10768288311662</v>
       </c>
       <c r="E39" t="n">
-        <v>50.39694219533662</v>
+        <v>50.23936347008179</v>
       </c>
       <c r="F39" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G39" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H39" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I39" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J39" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K39" t="n">
-        <v>142.5890798724797</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L39" t="n">
-        <v>355.8291375786777</v>
+        <v>228.3639620705569</v>
       </c>
       <c r="M39" t="n">
-        <v>396.2978968992348</v>
+        <v>228.3639620705569</v>
       </c>
       <c r="N39" t="n">
-        <v>396.2978968992348</v>
+        <v>439.6539830517264</v>
       </c>
       <c r="O39" t="n">
-        <v>609.5379546054328</v>
+        <v>601.6590183426915</v>
       </c>
       <c r="P39" t="n">
-        <v>792.1814322187837</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q39" t="n">
-        <v>861.575990732113</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R39" t="n">
-        <v>861.575990732113</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S39" t="n">
-        <v>801.5277817752026</v>
+        <v>793.6488455124612</v>
       </c>
       <c r="T39" t="n">
-        <v>717.4906672679574</v>
+        <v>759.1360548725922</v>
       </c>
       <c r="U39" t="n">
-        <v>602.6361845967672</v>
+        <v>644.281572201402</v>
       </c>
       <c r="V39" t="n">
-        <v>480.8532119574451</v>
+        <v>522.49859956208</v>
       </c>
       <c r="W39" t="n">
-        <v>339.9849908216642</v>
+        <v>381.630378426299</v>
       </c>
       <c r="X39" t="n">
-        <v>245.502626208552</v>
+        <v>287.1480138131868</v>
       </c>
       <c r="Y39" t="n">
-        <v>151.1114630360188</v>
+        <v>192.7568506406536</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>233.9295632109221</v>
+        <v>117.4470840459988</v>
       </c>
       <c r="C40" t="n">
-        <v>178.3625158754359</v>
+        <v>61.88003671051254</v>
       </c>
       <c r="D40" t="n">
-        <v>141.6150120555209</v>
+        <v>61.88003671051254</v>
       </c>
       <c r="E40" t="n">
-        <v>107.0710540655484</v>
+        <v>61.88003671051254</v>
       </c>
       <c r="F40" t="n">
-        <v>73.55024216005873</v>
+        <v>28.35922480502286</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23151981464226</v>
+        <v>28.35922480502286</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23151981464226</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J40" t="n">
-        <v>35.91902129326771</v>
+        <v>35.76144256801288</v>
       </c>
       <c r="K40" t="n">
-        <v>124.9853141797752</v>
+        <v>124.8277354545204</v>
       </c>
       <c r="L40" t="n">
-        <v>263.4125289816196</v>
+        <v>263.2549502563649</v>
       </c>
       <c r="M40" t="n">
-        <v>413.7136569679733</v>
+        <v>413.5560782427185</v>
       </c>
       <c r="N40" t="n">
-        <v>568.5175974175411</v>
+        <v>568.3600186922863</v>
       </c>
       <c r="O40" t="n">
-        <v>703.9699638465718</v>
+        <v>703.812385121317</v>
       </c>
       <c r="P40" t="n">
-        <v>812.3888273129478</v>
+        <v>812.231248587693</v>
       </c>
       <c r="Q40" t="n">
-        <v>838.2014942879018</v>
+        <v>838.043915562647</v>
       </c>
       <c r="R40" t="n">
-        <v>772.4863961660099</v>
+        <v>838.043915562647</v>
       </c>
       <c r="S40" t="n">
-        <v>772.4863961660099</v>
+        <v>725.13365919853</v>
       </c>
       <c r="T40" t="n">
-        <v>772.4863961660099</v>
+        <v>725.13365919853</v>
       </c>
       <c r="U40" t="n">
-        <v>700.3007857499872</v>
+        <v>725.13365919853</v>
       </c>
       <c r="V40" t="n">
-        <v>700.3007857499872</v>
+        <v>583.8183065850639</v>
       </c>
       <c r="W40" t="n">
-        <v>524.2527513054472</v>
+        <v>407.7702721405239</v>
       </c>
       <c r="X40" t="n">
-        <v>409.6323359998506</v>
+        <v>293.1498568349272</v>
       </c>
       <c r="Y40" t="n">
-        <v>302.2088924487412</v>
+        <v>185.7264132838178</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>331.0046293511588</v>
+        <v>471.6011527690331</v>
       </c>
       <c r="C41" t="n">
-        <v>331.0046293511588</v>
+        <v>312.276438995711</v>
       </c>
       <c r="D41" t="n">
-        <v>331.0046293511588</v>
+        <v>152.951725222389</v>
       </c>
       <c r="E41" t="n">
-        <v>171.8065582896165</v>
+        <v>152.951725222389</v>
       </c>
       <c r="F41" t="n">
-        <v>12.60848722807415</v>
+        <v>152.951725222389</v>
       </c>
       <c r="G41" t="n">
-        <v>12.60848722807415</v>
+        <v>152.951725222389</v>
       </c>
       <c r="H41" t="n">
-        <v>12.60848722807415</v>
+        <v>12.6185173308471</v>
       </c>
       <c r="I41" t="n">
-        <v>12.60848722807415</v>
+        <v>12.6185173308471</v>
       </c>
       <c r="J41" t="n">
-        <v>12.60848722807415</v>
+        <v>12.6185173308471</v>
       </c>
       <c r="K41" t="n">
-        <v>115.6234931389965</v>
+        <v>115.6335232417695</v>
       </c>
       <c r="L41" t="n">
-        <v>271.6535225864141</v>
+        <v>271.7876752110024</v>
       </c>
       <c r="M41" t="n">
-        <v>427.6835520338317</v>
+        <v>325.5767644304742</v>
       </c>
       <c r="N41" t="n">
-        <v>583.7135814812493</v>
+        <v>481.7309163997071</v>
       </c>
       <c r="O41" t="n">
-        <v>630.4243614037075</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="P41" t="n">
-        <v>630.4243614037075</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="Q41" t="n">
-        <v>630.4243614037075</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="R41" t="n">
-        <v>630.4243614037075</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="S41" t="n">
-        <v>630.4243614037075</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="T41" t="n">
-        <v>630.4243614037075</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="U41" t="n">
-        <v>630.4243614037075</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="V41" t="n">
-        <v>471.2262903421652</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="W41" t="n">
-        <v>471.2262903421652</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="X41" t="n">
-        <v>471.2262903421652</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="Y41" t="n">
-        <v>331.0046293511588</v>
+        <v>630.9258665423552</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12.60848722807415</v>
+        <v>228.9363598716058</v>
       </c>
       <c r="C42" t="n">
-        <v>12.60848722807415</v>
+        <v>140.9568336270085</v>
       </c>
       <c r="D42" t="n">
-        <v>12.60848722807415</v>
+        <v>85.38246929977286</v>
       </c>
       <c r="E42" t="n">
-        <v>12.60848722807415</v>
+        <v>12.6185173308471</v>
       </c>
       <c r="F42" t="n">
-        <v>12.60848722807415</v>
+        <v>12.6185173308471</v>
       </c>
       <c r="G42" t="n">
-        <v>12.60848722807415</v>
+        <v>12.6185173308471</v>
       </c>
       <c r="H42" t="n">
-        <v>12.60848722807415</v>
+        <v>12.6185173308471</v>
       </c>
       <c r="I42" t="n">
-        <v>12.60848722807415</v>
+        <v>12.6185173308471</v>
       </c>
       <c r="J42" t="n">
-        <v>12.60848722807415</v>
+        <v>12.6185173308471</v>
       </c>
       <c r="K42" t="n">
-        <v>137.9660472859115</v>
+        <v>137.9760773886845</v>
       </c>
       <c r="L42" t="n">
-        <v>293.9960767333291</v>
+        <v>294.1302293579174</v>
       </c>
       <c r="M42" t="n">
-        <v>450.0261061807468</v>
+        <v>294.1302293579174</v>
       </c>
       <c r="N42" t="n">
-        <v>450.0261061807468</v>
+        <v>294.1302293579174</v>
       </c>
       <c r="O42" t="n">
-        <v>561.0298028903782</v>
+        <v>450.2843813271503</v>
       </c>
       <c r="P42" t="n">
-        <v>561.0298028903782</v>
+        <v>561.5313080290258</v>
       </c>
       <c r="Q42" t="n">
-        <v>630.4243614037075</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="R42" t="n">
-        <v>630.4243614037075</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="S42" t="n">
-        <v>630.4243614037075</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="T42" t="n">
-        <v>630.4243614037075</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="U42" t="n">
-        <v>488.5906705149804</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="V42" t="n">
-        <v>339.8284896581216</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="W42" t="n">
-        <v>180.6304185965793</v>
+        <v>471.6011527690331</v>
       </c>
       <c r="X42" t="n">
-        <v>59.16884576593034</v>
+        <v>350.22315560003</v>
       </c>
       <c r="Y42" t="n">
-        <v>59.16884576593034</v>
+        <v>228.9363598716058</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.28061194427568</v>
+        <v>220.9744682794691</v>
       </c>
       <c r="C43" t="n">
-        <v>28.28061194427568</v>
+        <v>220.9744682794691</v>
       </c>
       <c r="D43" t="n">
-        <v>28.28061194427568</v>
+        <v>220.9744682794691</v>
       </c>
       <c r="E43" t="n">
-        <v>28.28061194427568</v>
+        <v>220.9744682794691</v>
       </c>
       <c r="F43" t="n">
-        <v>28.28061194427568</v>
+        <v>160.5580238180885</v>
       </c>
       <c r="G43" t="n">
-        <v>28.28061194427568</v>
+        <v>160.5580238180885</v>
       </c>
       <c r="H43" t="n">
-        <v>28.28061194427568</v>
+        <v>83.16569603902271</v>
       </c>
       <c r="I43" t="n">
-        <v>12.60848722807415</v>
+        <v>12.6185173308471</v>
       </c>
       <c r="J43" t="n">
-        <v>12.60848722807415</v>
+        <v>12.6185173308471</v>
       </c>
       <c r="K43" t="n">
-        <v>75.2324581405738</v>
+        <v>75.32440074932587</v>
       </c>
       <c r="L43" t="n">
-        <v>187.2173509684104</v>
+        <v>187.3912060831416</v>
       </c>
       <c r="M43" t="n">
-        <v>311.0761569807564</v>
+        <v>311.3319246014667</v>
       </c>
       <c r="N43" t="n">
-        <v>439.4377754563163</v>
+        <v>439.7754555830057</v>
       </c>
       <c r="O43" t="n">
-        <v>548.4478199113393</v>
+        <v>548.8674125440078</v>
       </c>
       <c r="P43" t="n">
-        <v>630.4243614037075</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="Q43" t="n">
-        <v>630.4243614037075</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="R43" t="n">
-        <v>630.4243614037075</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="S43" t="n">
-        <v>490.5348968220537</v>
+        <v>630.9258665423552</v>
       </c>
       <c r="T43" t="n">
-        <v>346.6767540673603</v>
+        <v>514.6182581597915</v>
       </c>
       <c r="U43" t="n">
-        <v>346.6767540673603</v>
+        <v>355.2935443864695</v>
       </c>
       <c r="V43" t="n">
-        <v>187.478683005818</v>
+        <v>355.2935443864695</v>
       </c>
       <c r="W43" t="n">
-        <v>28.28061194427568</v>
+        <v>355.2935443864695</v>
       </c>
       <c r="X43" t="n">
-        <v>28.28061194427568</v>
+        <v>355.2935443864695</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.28061194427568</v>
+        <v>220.9744682794691</v>
       </c>
     </row>
     <row r="44">
@@ -8693,16 +8693,16 @@
         <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
-        <v>260.3515428840269</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
         <v>256.8532869499004</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>168.2165356390753</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P12" t="n">
-        <v>158.5595353283699</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q12" t="n">
         <v>165.6020652806523</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M14" t="n">
-        <v>255.9665244219036</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N14" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>255.8181236693092</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,22 +9009,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>167.7543251166491</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>168.2165356390753</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P15" t="n">
-        <v>158.5595353283699</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,13 +9088,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>160.5049674758691</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>164.5460751422359</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N16" t="n">
-        <v>153.305835659864</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4980495717128</v>
+        <v>303.3726732870508</v>
       </c>
       <c r="L17" t="n">
-        <v>319.1746134967195</v>
+        <v>319.0492372120575</v>
       </c>
       <c r="M17" t="n">
-        <v>310.3844035307026</v>
+        <v>310.2640929545119</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>313.506409948419</v>
+        <v>313.381033663757</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>221.2496375010912</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>225.5422324487506</v>
+        <v>151.9563799994299</v>
       </c>
       <c r="N18" t="n">
-        <v>214.7499106100655</v>
+        <v>214.6245343254036</v>
       </c>
       <c r="O18" t="n">
-        <v>222.6344147478743</v>
+        <v>225.8790666865147</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>217.2572296564005</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,13 +9483,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,22 +9720,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>371.3463732493024</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10595,10 +10595,10 @@
         <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
-        <v>339.6742254965836</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>283.1274823473447</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>160.7572284521228</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>357.5280316050466</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
         <v>346.7357097663615</v>
@@ -10680,7 +10680,7 @@
         <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>214.041819273966</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>226.4727136557643</v>
+        <v>311.2088090896966</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>445.740230910301</v>
+        <v>443.7704968446156</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>353.9483774629024</v>
+        <v>351.9786433972171</v>
       </c>
       <c r="M39" t="n">
-        <v>183.0115685892478</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>344.7659757006762</v>
       </c>
       <c r="O39" t="n">
-        <v>357.9902421274727</v>
+        <v>306.2376942332981</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11063,16 +11063,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>393.3725053209141</v>
+        <v>393.497881605576</v>
       </c>
       <c r="M41" t="n">
-        <v>387.9523235781996</v>
+        <v>284.6786465802746</v>
       </c>
       <c r="N41" t="n">
-        <v>387.0191539475178</v>
+        <v>387.1445302321797</v>
       </c>
       <c r="O41" t="n">
-        <v>277.2808174039677</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11142,19 +11142,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>296.1604701308011</v>
+        <v>296.285846415463</v>
       </c>
       <c r="M42" t="n">
-        <v>299.7401242729452</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>254.7211906157893</v>
+        <v>300.3277110800332</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>246.3450404465277</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -23267,13 +23267,13 @@
         <v>371.939670857717</v>
       </c>
       <c r="F11" t="n">
-        <v>371.2650553325358</v>
+        <v>396.8853465271666</v>
       </c>
       <c r="G11" t="n">
-        <v>379.6917471059594</v>
+        <v>382.7456858163594</v>
       </c>
       <c r="H11" t="n">
-        <v>306.9177504169915</v>
+        <v>303.8638117065915</v>
       </c>
       <c r="I11" t="n">
         <v>174.8648991612303</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>139.8784187266049</v>
+        <v>114.2581275319741</v>
       </c>
       <c r="S11" t="n">
         <v>199.0293703717005</v>
@@ -23337,7 +23337,7 @@
         <v>156.5424844353225</v>
       </c>
       <c r="C12" t="n">
-        <v>162.7177997737709</v>
+        <v>137.0975085791401</v>
       </c>
       <c r="D12" t="n">
         <v>137.4543663500939</v>
@@ -23349,10 +23349,10 @@
         <v>135.0785131788391</v>
       </c>
       <c r="G12" t="n">
-        <v>101.732526754035</v>
+        <v>104.786465464435</v>
       </c>
       <c r="H12" t="n">
-        <v>79.67839253772082</v>
+        <v>76.62445382732082</v>
       </c>
       <c r="I12" t="n">
         <v>53.78564244223944</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>64.54684374346749</v>
+        <v>90.16713493809833</v>
       </c>
       <c r="S12" t="n">
         <v>161.692471889293</v>
@@ -23425,16 +23425,16 @@
         <v>136.4432634320244</v>
       </c>
       <c r="F13" t="n">
-        <v>135.4303488083864</v>
+        <v>125.1427889354937</v>
       </c>
       <c r="G13" t="n">
-        <v>158.000280143914</v>
+        <v>132.3799889492831</v>
       </c>
       <c r="H13" t="n">
         <v>126.6161820982639</v>
       </c>
       <c r="I13" t="n">
-        <v>119.8394845180827</v>
+        <v>145.4597757127135</v>
       </c>
       <c r="J13" t="n">
         <v>57.74818970749714</v>
@@ -23473,7 +23473,7 @@
         <v>276.3283301419461</v>
       </c>
       <c r="V13" t="n">
-        <v>231.8593842363904</v>
+        <v>242.1469441092832</v>
       </c>
       <c r="W13" t="n">
         <v>276.5322991220462</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>346.1734256752821</v>
+        <v>346.2561655803115</v>
       </c>
       <c r="C14" t="n">
-        <v>328.7124757828091</v>
+        <v>304.493921438552</v>
       </c>
       <c r="D14" t="n">
-        <v>318.1226256324845</v>
+        <v>318.2053655375139</v>
       </c>
       <c r="E14" t="n">
-        <v>345.3699540840634</v>
+        <v>345.4526939890927</v>
       </c>
       <c r="F14" t="n">
-        <v>344.6953385588822</v>
+        <v>370.3983696585424</v>
       </c>
       <c r="G14" t="n">
-        <v>353.1220303323058</v>
+        <v>351.2350361716499</v>
       </c>
       <c r="H14" t="n">
-        <v>280.3480336433379</v>
+        <v>275.407100772282</v>
       </c>
       <c r="I14" t="n">
-        <v>148.2951823875766</v>
+        <v>146.4081882269207</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>113.3087019529512</v>
+        <v>113.3914418579806</v>
       </c>
       <c r="S14" t="n">
-        <v>172.4596535980469</v>
+        <v>172.5423935030763</v>
       </c>
       <c r="T14" t="n">
-        <v>186.5354335759329</v>
+        <v>186.6181734809623</v>
       </c>
       <c r="U14" t="n">
-        <v>214.785236919638</v>
+        <v>214.8679768246674</v>
       </c>
       <c r="V14" t="n">
-        <v>291.1918424819364</v>
+        <v>291.2745823869658</v>
       </c>
       <c r="W14" t="n">
-        <v>312.6805527292146</v>
+        <v>312.763292634244</v>
       </c>
       <c r="X14" t="n">
-        <v>333.1706846902706</v>
+        <v>333.2534245953</v>
       </c>
       <c r="Y14" t="n">
-        <v>349.6775226678551</v>
+        <v>349.7602625728845</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>129.9727676616689</v>
+        <v>130.0555075666983</v>
       </c>
       <c r="C15" t="n">
-        <v>136.1480830001173</v>
+        <v>108.6407976448305</v>
       </c>
       <c r="D15" t="n">
-        <v>110.8846495764403</v>
+        <v>110.9673894814697</v>
       </c>
       <c r="E15" t="n">
-        <v>121.0846644672025</v>
+        <v>121.1674043722319</v>
       </c>
       <c r="F15" t="n">
-        <v>108.5087964051854</v>
+        <v>108.5915363102148</v>
       </c>
       <c r="G15" t="n">
-        <v>100.7831011750122</v>
+        <v>73.27581581972544</v>
       </c>
       <c r="H15" t="n">
-        <v>75.67502824829801</v>
+        <v>75.75776815332742</v>
       </c>
       <c r="I15" t="n">
-        <v>52.83621686321662</v>
+        <v>25.32893150792989</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>63.59741816444468</v>
+        <v>63.68015806947408</v>
       </c>
       <c r="S15" t="n">
-        <v>109.5024639210085</v>
+        <v>135.2054950206688</v>
       </c>
       <c r="T15" t="n">
-        <v>137.9840215119923</v>
+        <v>163.6870526116525</v>
       </c>
       <c r="U15" t="n">
-        <v>163.7606748981455</v>
+        <v>189.4637059978058</v>
       </c>
       <c r="V15" t="n">
-        <v>173.673818676996</v>
+        <v>172.0216168169698</v>
       </c>
       <c r="W15" t="n">
-        <v>215.1345671727211</v>
+        <v>215.2173070777505</v>
       </c>
       <c r="X15" t="n">
-        <v>169.212569215279</v>
+        <v>169.2953091203084</v>
       </c>
       <c r="Y15" t="n">
-        <v>169.1222797891059</v>
+        <v>169.2050196941353</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>143.2715641937388</v>
+        <v>143.3543040987682</v>
       </c>
       <c r="C16" t="n">
-        <v>130.6864051104294</v>
+        <v>130.7691450154588</v>
       </c>
       <c r="D16" t="n">
-        <v>112.0550570300139</v>
+        <v>112.1377969350433</v>
       </c>
       <c r="E16" t="n">
-        <v>109.8735466583707</v>
+        <v>109.9562865634001</v>
       </c>
       <c r="F16" t="n">
-        <v>108.8606320347328</v>
+        <v>81.35334667944605</v>
       </c>
       <c r="G16" t="n">
-        <v>105.8102721756295</v>
+        <v>103.9232780149736</v>
       </c>
       <c r="H16" t="n">
-        <v>100.0464653246103</v>
+        <v>125.7494964242705</v>
       </c>
       <c r="I16" t="n">
-        <v>93.269767744429</v>
+        <v>91.38277358377309</v>
       </c>
       <c r="J16" t="n">
-        <v>34.23241164424348</v>
+        <v>32.58020978421727</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.60162726349593</v>
+        <v>49.68436716852533</v>
       </c>
       <c r="R16" t="n">
-        <v>140.732975388971</v>
+        <v>140.8157152940004</v>
       </c>
       <c r="S16" t="n">
-        <v>187.4561820487738</v>
+        <v>187.5389219538032</v>
       </c>
       <c r="T16" t="n">
-        <v>191.385173440083</v>
+        <v>191.4679133451124</v>
       </c>
       <c r="U16" t="n">
-        <v>249.7586133682924</v>
+        <v>249.8413532733218</v>
       </c>
       <c r="V16" t="n">
-        <v>215.5772273356295</v>
+        <v>215.6599672406589</v>
       </c>
       <c r="W16" t="n">
-        <v>249.9625823483925</v>
+        <v>250.0453222534219</v>
       </c>
       <c r="X16" t="n">
-        <v>189.1492394008387</v>
+        <v>189.2319793058681</v>
       </c>
       <c r="Y16" t="n">
-        <v>182.0242373638963</v>
+        <v>182.1069772689257</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>346.1734256752821</v>
+        <v>346.2561655803115</v>
       </c>
       <c r="C17" t="n">
-        <v>245.3042772560768</v>
+        <v>328.7952156878385</v>
       </c>
       <c r="D17" t="n">
-        <v>318.1226256324845</v>
+        <v>318.2053655375139</v>
       </c>
       <c r="E17" t="n">
-        <v>345.3699540840633</v>
+        <v>345.4526939890927</v>
       </c>
       <c r="F17" t="n">
-        <v>286.9074312267807</v>
+        <v>370.3983696585424</v>
       </c>
       <c r="G17" t="n">
-        <v>378.7423215269366</v>
+        <v>378.825061431966</v>
       </c>
       <c r="H17" t="n">
-        <v>302.9143861275687</v>
+        <v>302.9971260325981</v>
       </c>
       <c r="I17" t="n">
-        <v>173.9154735822074</v>
+        <v>173.9982134872369</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>113.3087019529512</v>
+        <v>113.3914418579806</v>
       </c>
       <c r="S17" t="n">
-        <v>172.4596535980469</v>
+        <v>89.25957126100602</v>
       </c>
       <c r="T17" t="n">
-        <v>186.5354335759329</v>
+        <v>186.6181734809623</v>
       </c>
       <c r="U17" t="n">
-        <v>214.785236919638</v>
+        <v>131.5851545825972</v>
       </c>
       <c r="V17" t="n">
-        <v>217.7259012195907</v>
+        <v>291.2745823869658</v>
       </c>
       <c r="W17" t="n">
-        <v>312.6805527292145</v>
+        <v>229.4804703921737</v>
       </c>
       <c r="X17" t="n">
-        <v>249.7624861635383</v>
+        <v>333.2534245953</v>
       </c>
       <c r="Y17" t="n">
-        <v>349.6775226678551</v>
+        <v>276.4047527420691</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>129.9727676616689</v>
+        <v>130.0555075666983</v>
       </c>
       <c r="C18" t="n">
-        <v>136.1480830001173</v>
+        <v>136.2308229051467</v>
       </c>
       <c r="D18" t="n">
-        <v>110.8846495764403</v>
+        <v>27.68456723939943</v>
       </c>
       <c r="E18" t="n">
-        <v>121.0846644672025</v>
+        <v>37.88458213016162</v>
       </c>
       <c r="F18" t="n">
-        <v>108.5087964051854</v>
+        <v>108.5915363102148</v>
       </c>
       <c r="G18" t="n">
-        <v>100.7831011750121</v>
+        <v>17.58301883797131</v>
       </c>
       <c r="H18" t="n">
-        <v>75.67502824829796</v>
+        <v>2.402258322511969</v>
       </c>
       <c r="I18" t="n">
-        <v>52.83621686321658</v>
+        <v>52.91895676824603</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>63.59741816444464</v>
+        <v>63.68015806947408</v>
       </c>
       <c r="S18" t="n">
-        <v>51.7145565889071</v>
+        <v>135.2054950206688</v>
       </c>
       <c r="T18" t="n">
-        <v>80.19611417989088</v>
+        <v>163.6870526116525</v>
       </c>
       <c r="U18" t="n">
-        <v>105.9727675660441</v>
+        <v>189.4637059978058</v>
       </c>
       <c r="V18" t="n">
-        <v>122.7742298988811</v>
+        <v>196.3229110662562</v>
       </c>
       <c r="W18" t="n">
-        <v>215.1345671727211</v>
+        <v>215.2173070777505</v>
       </c>
       <c r="X18" t="n">
-        <v>169.212569215279</v>
+        <v>169.2953091203084</v>
       </c>
       <c r="Y18" t="n">
-        <v>169.1222797891059</v>
+        <v>169.2050196941353</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>143.2715641937388</v>
+        <v>143.3543040987682</v>
       </c>
       <c r="C19" t="n">
-        <v>130.6864051104293</v>
+        <v>130.7691450154588</v>
       </c>
       <c r="D19" t="n">
-        <v>112.0550570300139</v>
+        <v>112.1377969350433</v>
       </c>
       <c r="E19" t="n">
-        <v>109.8735466583707</v>
+        <v>109.9562865634001</v>
       </c>
       <c r="F19" t="n">
-        <v>108.8606320347328</v>
+        <v>108.9433719397622</v>
       </c>
       <c r="G19" t="n">
-        <v>57.96462210791454</v>
+        <v>131.5133032752897</v>
       </c>
       <c r="H19" t="n">
-        <v>42.25855799250886</v>
+        <v>42.46667418220025</v>
       </c>
       <c r="I19" t="n">
-        <v>35.48186041232756</v>
+        <v>45.61728901327378</v>
       </c>
       <c r="J19" t="n">
-        <v>56.79876412847428</v>
+        <v>56.88150403350372</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.60162726349589</v>
+        <v>49.68436716852533</v>
       </c>
       <c r="R19" t="n">
-        <v>140.732975388971</v>
+        <v>140.8157152940004</v>
       </c>
       <c r="S19" t="n">
-        <v>187.4561820487738</v>
+        <v>187.5389219538032</v>
       </c>
       <c r="T19" t="n">
-        <v>191.385173440083</v>
+        <v>108.1850911030422</v>
       </c>
       <c r="U19" t="n">
-        <v>249.7586133682924</v>
+        <v>249.8413532733218</v>
       </c>
       <c r="V19" t="n">
-        <v>215.5772273356295</v>
+        <v>215.6599672406589</v>
       </c>
       <c r="W19" t="n">
-        <v>166.5543838216603</v>
+        <v>250.0453222534219</v>
       </c>
       <c r="X19" t="n">
-        <v>189.1492394008387</v>
+        <v>189.2319793058681</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.0242373638963</v>
+        <v>98.82415502685546</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>344.1660361341509</v>
+        <v>344.2487760391804</v>
       </c>
       <c r="C20" t="n">
-        <v>326.7050862416779</v>
+        <v>326.7878261467073</v>
       </c>
       <c r="D20" t="n">
-        <v>75.10094721369427</v>
+        <v>316.1979759963828</v>
       </c>
       <c r="E20" t="n">
-        <v>343.3625645429321</v>
+        <v>343.4453044479616</v>
       </c>
       <c r="F20" t="n">
-        <v>368.3082402123818</v>
+        <v>127.3766912397522</v>
       </c>
       <c r="G20" t="n">
-        <v>135.7206431081464</v>
+        <v>376.8176718908348</v>
       </c>
       <c r="H20" t="n">
-        <v>59.89270770877846</v>
+        <v>300.9897364914669</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.9908239461057</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>111.30131241182</v>
+        <v>111.3840523168495</v>
       </c>
       <c r="S20" t="n">
-        <v>170.4522640569157</v>
+        <v>170.5350039619452</v>
       </c>
       <c r="T20" t="n">
-        <v>184.5280440348017</v>
+        <v>184.6107839398312</v>
       </c>
       <c r="U20" t="n">
-        <v>212.7778473785068</v>
+        <v>212.8605872835363</v>
       </c>
       <c r="V20" t="n">
-        <v>248.8071513384395</v>
+        <v>289.2671928458347</v>
       </c>
       <c r="W20" t="n">
-        <v>310.6731631880834</v>
+        <v>98.47051744967081</v>
       </c>
       <c r="X20" t="n">
-        <v>331.1632951491394</v>
+        <v>90.23174617650977</v>
       </c>
       <c r="Y20" t="n">
-        <v>347.670133126724</v>
+        <v>106.7385841540943</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24045,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>128.0481180255671</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>134.2234333640155</v>
       </c>
       <c r="D21" t="n">
-        <v>108.8772600353091</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>119.0772749260713</v>
+        <v>119.1600148311008</v>
       </c>
       <c r="F21" t="n">
-        <v>106.5014068640542</v>
+        <v>106.5841467690837</v>
       </c>
       <c r="G21" t="n">
-        <v>98.77571163388097</v>
+        <v>98.85845153891044</v>
       </c>
       <c r="H21" t="n">
-        <v>73.66763870716682</v>
+        <v>73.75037861219627</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>61.59002862331348</v>
+        <v>61.67276852834294</v>
       </c>
       <c r="S21" t="n">
-        <v>133.1153655745082</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>86.65081734439451</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>187.3735765516452</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>194.2327816200956</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>213.2099175366194</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>167.2879195791773</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>68.39055157589721</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>141.2641746526076</v>
+        <v>141.3469145576371</v>
       </c>
       <c r="C22" t="n">
-        <v>128.6790155692982</v>
+        <v>128.7617554743276</v>
       </c>
       <c r="D22" t="n">
-        <v>110.0476674888827</v>
+        <v>85.7696254495101</v>
       </c>
       <c r="E22" t="n">
-        <v>56.24161938421659</v>
+        <v>107.948897022269</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>106.9359823986311</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>129.5059137341586</v>
       </c>
       <c r="H22" t="n">
-        <v>123.6593669781099</v>
+        <v>123.7421068831394</v>
       </c>
       <c r="I22" t="n">
-        <v>116.8826693979286</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>54.79137458734312</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>47.67697762739419</v>
       </c>
       <c r="R22" t="n">
-        <v>138.7255858478398</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>185.4487925076426</v>
+        <v>185.531532412672</v>
       </c>
       <c r="T22" t="n">
-        <v>189.3777838989518</v>
+        <v>189.4605238039813</v>
       </c>
       <c r="U22" t="n">
-        <v>247.7512238271612</v>
+        <v>247.8339637321907</v>
       </c>
       <c r="V22" t="n">
-        <v>213.5698377944983</v>
+        <v>213.6525776995278</v>
       </c>
       <c r="W22" t="n">
-        <v>247.9551928072613</v>
+        <v>248.0379327122908</v>
       </c>
       <c r="X22" t="n">
-        <v>187.1418498597075</v>
+        <v>187.2245897647369</v>
       </c>
       <c r="Y22" t="n">
-        <v>180.0168478227651</v>
+        <v>180.0995877277946</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>344.1660361341509</v>
+        <v>103.2344871615213</v>
       </c>
       <c r="C23" t="n">
-        <v>228.385719812294</v>
+        <v>85.77353726904829</v>
       </c>
       <c r="D23" t="n">
-        <v>316.1152360913533</v>
+        <v>75.1836871187237</v>
       </c>
       <c r="E23" t="n">
-        <v>343.3625645429321</v>
+        <v>343.4453044479616</v>
       </c>
       <c r="F23" t="n">
-        <v>368.3082402123818</v>
+        <v>368.3909801174112</v>
       </c>
       <c r="G23" t="n">
-        <v>376.7349319858054</v>
+        <v>376.8176718908348</v>
       </c>
       <c r="H23" t="n">
-        <v>300.9069965864375</v>
+        <v>300.9897364914669</v>
       </c>
       <c r="I23" t="n">
-        <v>171.9080840410763</v>
+        <v>171.9908239461057</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>111.30131241182</v>
+        <v>111.3840523168495</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>170.5350039619452</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>184.6107839398312</v>
       </c>
       <c r="U23" t="n">
-        <v>212.7778473785068</v>
+        <v>212.8605872835363</v>
       </c>
       <c r="V23" t="n">
-        <v>48.17016406314622</v>
+        <v>289.2671928458347</v>
       </c>
       <c r="W23" t="n">
-        <v>310.6731631880834</v>
+        <v>310.7559030931128</v>
       </c>
       <c r="X23" t="n">
-        <v>331.1632951491394</v>
+        <v>331.2460350541688</v>
       </c>
       <c r="Y23" t="n">
-        <v>106.6558442490649</v>
+        <v>135.4674873883114</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>127.9653781205377</v>
+        <v>1.62202808681981</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>134.2234333640155</v>
       </c>
       <c r="D24" t="n">
-        <v>108.8772600353091</v>
+        <v>108.9599999403386</v>
       </c>
       <c r="E24" t="n">
-        <v>119.0772749260713</v>
+        <v>119.1600148311008</v>
       </c>
       <c r="F24" t="n">
-        <v>106.5014068640542</v>
+        <v>106.5841467690837</v>
       </c>
       <c r="G24" t="n">
-        <v>98.77571163388097</v>
+        <v>98.85845153891044</v>
       </c>
       <c r="H24" t="n">
-        <v>73.66763870716682</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>50.82882732208542</v>
+        <v>50.91156722711489</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,19 +24330,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>61.59002862331348</v>
+        <v>61.67276852834294</v>
       </c>
       <c r="S24" t="n">
-        <v>93.86652223455357</v>
+        <v>133.1981054795376</v>
       </c>
       <c r="T24" t="n">
-        <v>161.5969231654919</v>
+        <v>161.6796630705214</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>194.3155215251251</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>167.1148902479747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>141.2641746526076</v>
+        <v>141.3469145576371</v>
       </c>
       <c r="C25" t="n">
-        <v>128.6790155692982</v>
+        <v>128.7617554743276</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0476674888827</v>
+        <v>110.1304073939122</v>
       </c>
       <c r="E25" t="n">
-        <v>107.8661571172395</v>
+        <v>107.948897022269</v>
       </c>
       <c r="F25" t="n">
-        <v>106.8532424936016</v>
+        <v>106.9359823986311</v>
       </c>
       <c r="G25" t="n">
-        <v>129.4231738291291</v>
+        <v>129.5059137341586</v>
       </c>
       <c r="H25" t="n">
-        <v>123.6593669781099</v>
+        <v>123.7421068831394</v>
       </c>
       <c r="I25" t="n">
-        <v>116.8826693979286</v>
+        <v>116.9654093029581</v>
       </c>
       <c r="J25" t="n">
-        <v>54.79137458734312</v>
+        <v>54.87411449237258</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.59423772236473</v>
+        <v>47.67697762739419</v>
       </c>
       <c r="R25" t="n">
-        <v>138.7255858478398</v>
+        <v>138.8083257528693</v>
       </c>
       <c r="S25" t="n">
-        <v>185.4487925076426</v>
+        <v>185.531532412672</v>
       </c>
       <c r="T25" t="n">
-        <v>189.3777838989518</v>
+        <v>189.4605238039813</v>
       </c>
       <c r="U25" t="n">
-        <v>92.27287987180802</v>
+        <v>247.8339637321907</v>
       </c>
       <c r="V25" t="n">
-        <v>213.5698377944983</v>
+        <v>213.6525776995278</v>
       </c>
       <c r="W25" t="n">
-        <v>247.9551928072613</v>
+        <v>100.2538909844257</v>
       </c>
       <c r="X25" t="n">
-        <v>187.1418498597075</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>180.0995877277946</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>327.4473192133343</v>
+        <v>327.6127990233932</v>
       </c>
       <c r="C26" t="n">
-        <v>97.70098367741917</v>
+        <v>310.1518491309201</v>
       </c>
       <c r="D26" t="n">
-        <v>58.38223029287764</v>
+        <v>299.5619989805955</v>
       </c>
       <c r="E26" t="n">
-        <v>85.62955874445646</v>
+        <v>268.4229687348903</v>
       </c>
       <c r="F26" t="n">
-        <v>351.5895232915652</v>
+        <v>351.755003101624</v>
       </c>
       <c r="G26" t="n">
-        <v>360.0162150649888</v>
+        <v>360.1816948750476</v>
       </c>
       <c r="H26" t="n">
-        <v>284.1882796656209</v>
+        <v>284.3537594756797</v>
       </c>
       <c r="I26" t="n">
-        <v>155.1893671202596</v>
+        <v>155.3548469303185</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>94.58259549100339</v>
+        <v>94.74807530106227</v>
       </c>
       <c r="S26" t="n">
-        <v>153.733547136099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>167.8093271139851</v>
+        <v>167.9748069240439</v>
       </c>
       <c r="U26" t="n">
-        <v>196.0591304576902</v>
+        <v>196.2246102677491</v>
       </c>
       <c r="V26" t="n">
-        <v>31.45144714232958</v>
+        <v>31.61692695238844</v>
       </c>
       <c r="W26" t="n">
-        <v>293.9544462672667</v>
+        <v>53.10563719966655</v>
       </c>
       <c r="X26" t="n">
-        <v>314.4445782283228</v>
+        <v>73.59576916072257</v>
       </c>
       <c r="Y26" t="n">
-        <v>330.9514162059073</v>
+        <v>331.1168960159662</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>111.246661199721</v>
+        <v>111.4121410097799</v>
       </c>
       <c r="C27" t="n">
-        <v>117.4219765381694</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>92.15854311449246</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>39.26221607342833</v>
+        <v>89.94816975329647</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>82.22247452312322</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.11011040126879</v>
+        <v>34.27559021132766</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.87131170249685</v>
+        <v>45.03679151255572</v>
       </c>
       <c r="S27" t="n">
-        <v>116.3966486536915</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>145.0436860547342</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>170.8203394408874</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>29.67693508177842</v>
       </c>
       <c r="W27" t="n">
-        <v>196.4084607107733</v>
+        <v>196.5739405208322</v>
       </c>
       <c r="X27" t="n">
-        <v>150.4864627533312</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124.545457731791</v>
+        <v>124.7109375418499</v>
       </c>
       <c r="C28" t="n">
-        <v>111.9602986484815</v>
+        <v>112.1257784585404</v>
       </c>
       <c r="D28" t="n">
-        <v>93.32895056806606</v>
+        <v>93.49443037812495</v>
       </c>
       <c r="E28" t="n">
-        <v>91.14744019642288</v>
+        <v>91.31292000648176</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>90.30000538284384</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>112.8699367183713</v>
       </c>
       <c r="H28" t="n">
-        <v>77.33914260419311</v>
+        <v>107.1061298673522</v>
       </c>
       <c r="I28" t="n">
-        <v>100.163952477112</v>
+        <v>100.3294322871709</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>38.23813747658536</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>30.8755208015481</v>
+        <v>31.04100061160697</v>
       </c>
       <c r="R28" t="n">
-        <v>122.0068689270232</v>
+        <v>117.7527471856858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.730075586826</v>
+        <v>168.8955553968848</v>
       </c>
       <c r="T28" t="n">
-        <v>172.6590669781352</v>
+        <v>172.8245467881941</v>
       </c>
       <c r="U28" t="n">
-        <v>231.0325069063446</v>
+        <v>231.1979867164035</v>
       </c>
       <c r="V28" t="n">
-        <v>196.8511208736817</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>231.2364758864447</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>170.4231329388909</v>
+        <v>170.5886127489497</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>163.4636107120074</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>268.4910078858529</v>
+        <v>268.491007885853</v>
       </c>
       <c r="C29" t="n">
-        <v>169.831337542273</v>
+        <v>251.03005799338</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4402078430553</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>267.6875362946341</v>
+        <v>267.6875362946342</v>
       </c>
       <c r="F29" t="n">
-        <v>292.6332119640838</v>
+        <v>51.61892308642479</v>
       </c>
       <c r="G29" t="n">
-        <v>301.0599037375074</v>
+        <v>301.0599037375075</v>
       </c>
       <c r="H29" t="n">
-        <v>225.2319683381395</v>
+        <v>225.2319683381396</v>
       </c>
       <c r="I29" t="n">
-        <v>96.23305579277827</v>
+        <v>96.23305579277832</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>35.62628416352204</v>
+        <v>35.62628416352209</v>
       </c>
       <c r="S29" t="n">
-        <v>94.7772358086177</v>
+        <v>94.77723580861775</v>
       </c>
       <c r="T29" t="n">
-        <v>108.8530157865037</v>
+        <v>108.8530157865038</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>137.1028191302089</v>
       </c>
       <c r="V29" t="n">
         <v>213.5094246925073</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X29" t="n">
-        <v>14.47397802318233</v>
+        <v>42.62880022279566</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.98081600076688</v>
+        <v>30.98081600076694</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.58914640430966</v>
+        <v>65.5891464043097</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>31.17821424530361</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>53.74814558083112</v>
+        <v>53.74814558083116</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.98433872981198</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.20764114963069</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.05055759954185</v>
+        <v>63.05055759954189</v>
       </c>
       <c r="S31" t="n">
-        <v>50.19868625038845</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>113.7027556506539</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>137.8948095462003</v>
+        <v>130.0797301624507</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>268.4910078858529</v>
+        <v>268.491007885853</v>
       </c>
       <c r="C32" t="n">
-        <v>251.0300579933799</v>
+        <v>251.03005799338</v>
       </c>
       <c r="D32" t="n">
-        <v>240.4402078430553</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>39.61983011167257</v>
+        <v>26.67324741697513</v>
       </c>
       <c r="F32" t="n">
-        <v>51.61892308642473</v>
+        <v>51.61892308642479</v>
       </c>
       <c r="G32" t="n">
-        <v>60.04561485984834</v>
+        <v>88.20043705946168</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>225.2319683381396</v>
       </c>
       <c r="I32" t="n">
-        <v>96.23305579277829</v>
+        <v>96.23305579277832</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,13 +24962,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>35.62628416352206</v>
+        <v>35.62628416352209</v>
       </c>
       <c r="S32" t="n">
-        <v>94.77723580861772</v>
+        <v>94.77723580861775</v>
       </c>
       <c r="T32" t="n">
-        <v>108.8530157865037</v>
+        <v>108.8530157865038</v>
       </c>
       <c r="U32" t="n">
         <v>137.1028191302089</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.317839255929741</v>
+        <v>53.00398732100024</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>28.4794096253991</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>32.19112886894158</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>53.74814558083114</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.98433872981198</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.05055759954186</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0761955788633</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>137.8948095462004</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>111.4668216114095</v>
+        <v>111.4668216114096</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.10439974395587</v>
+        <v>55.1043997439559</v>
       </c>
       <c r="C35" t="n">
-        <v>253.0374475345111</v>
+        <v>63.31841437529985</v>
       </c>
       <c r="D35" t="n">
-        <v>27.05359970115825</v>
+        <v>27.05359970115828</v>
       </c>
       <c r="E35" t="n">
-        <v>269.6949258357653</v>
+        <v>54.3009281527371</v>
       </c>
       <c r="F35" t="n">
         <v>294.640601505215</v>
@@ -25211,10 +25211,10 @@
         <v>139.11020867134</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1228165506101959</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W35" t="n">
-        <v>47.28649132170531</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X35" t="n">
         <v>257.4956564419726</v>
@@ -25233,19 +25233,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>19.79595962906719</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>35.20962132814229</v>
       </c>
       <c r="E36" t="n">
-        <v>45.40963621890448</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>25.10807292671417</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25287,7 +25287,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>90.31366877468588</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.59653594544083</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>55.01137686213137</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>33.18560378643478</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>42.95014437413256</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
-        <v>43.21503069076182</v>
+        <v>8.048856809270994</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.05794714067302</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>113.4742111525407</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>106.3492091155983</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>55.10439974395587</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C38" t="n">
         <v>253.0374475345111</v>
@@ -25400,13 +25400,13 @@
         <v>269.6949258357653</v>
       </c>
       <c r="F38" t="n">
-        <v>79.24660382218673</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G38" t="n">
-        <v>303.0672932786386</v>
+        <v>89.64302966129569</v>
       </c>
       <c r="H38" t="n">
-        <v>227.2393578792707</v>
+        <v>13.81509426192778</v>
       </c>
       <c r="I38" t="n">
         <v>98.24044533390945</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S38" t="n">
-        <v>96.78462534974888</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>110.8604053276349</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V38" t="n">
-        <v>215.5168142336385</v>
+        <v>2.09255061629554</v>
       </c>
       <c r="W38" t="n">
-        <v>21.6115267978883</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X38" t="n">
-        <v>257.4956564419726</v>
+        <v>166.2961903975659</v>
       </c>
       <c r="Y38" t="n">
-        <v>261.0273436363392</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="39">
@@ -25467,13 +25467,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C39" t="n">
-        <v>60.47305475181928</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>35.20962132814229</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25521,7 +25521,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>4.732541096152417</v>
+        <v>53.76162172485487</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H40" t="n">
-        <v>49.99172827094311</v>
+        <v>38.81929739246404</v>
       </c>
       <c r="I40" t="n">
         <v>43.21503069076182</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S40" t="n">
-        <v>111.7811538004758</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>115.710145191785</v>
       </c>
       <c r="U40" t="n">
-        <v>102.619830808132</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V40" t="n">
-        <v>139.9021990873316</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>297.2078135623456</v>
+        <v>139.3936070217273</v>
       </c>
       <c r="C41" t="n">
-        <v>279.7468636698725</v>
+        <v>121.9326571292543</v>
       </c>
       <c r="D41" t="n">
-        <v>269.1570135195479</v>
+        <v>111.3428069789297</v>
       </c>
       <c r="E41" t="n">
-        <v>138.7982516201999</v>
+        <v>296.3216020660973</v>
       </c>
       <c r="F41" t="n">
-        <v>163.7439272896495</v>
+        <v>321.267277735547</v>
       </c>
       <c r="G41" t="n">
-        <v>329.776709414</v>
+        <v>329.6939695089706</v>
       </c>
       <c r="H41" t="n">
-        <v>253.9487740146321</v>
+        <v>114.9361582969763</v>
       </c>
       <c r="I41" t="n">
-        <v>124.9498614692709</v>
+        <v>124.8671215642415</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>64.34308984001466</v>
+        <v>64.26034993498524</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4940414851103</v>
+        <v>123.4113015800809</v>
       </c>
       <c r="T41" t="n">
-        <v>137.5698214629963</v>
+        <v>137.4870815579669</v>
       </c>
       <c r="U41" t="n">
-        <v>165.8196248067015</v>
+        <v>165.7368849016721</v>
       </c>
       <c r="V41" t="n">
-        <v>84.62014001807302</v>
+        <v>242.1434904639705</v>
       </c>
       <c r="W41" t="n">
-        <v>263.714940616278</v>
+        <v>263.6322007112486</v>
       </c>
       <c r="X41" t="n">
-        <v>284.205072577334</v>
+        <v>284.1223326723046</v>
       </c>
       <c r="Y41" t="n">
-        <v>161.8924661738223</v>
+        <v>300.6291706498891</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.91240059625469</v>
+        <v>80.9244156437029</v>
       </c>
       <c r="C42" t="n">
-        <v>87.18247088718071</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>61.91903746350373</v>
+        <v>6.817676874511001</v>
       </c>
       <c r="E42" t="n">
-        <v>72.11905235426592</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>59.54318429224885</v>
+        <v>59.46044438721944</v>
       </c>
       <c r="G42" t="n">
-        <v>51.81748906207561</v>
+        <v>51.7347491570462</v>
       </c>
       <c r="H42" t="n">
-        <v>26.70941613536144</v>
+        <v>26.62667623033202</v>
       </c>
       <c r="I42" t="n">
-        <v>3.870604750280052</v>
+        <v>3.787864845250638</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.63180605150811</v>
+        <v>14.54906614647869</v>
       </c>
       <c r="S42" t="n">
-        <v>86.1571430027028</v>
+        <v>86.07440309767338</v>
       </c>
       <c r="T42" t="n">
-        <v>114.6387005936866</v>
+        <v>114.5559606886572</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>140.3326140748104</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>147.1918191432608</v>
       </c>
       <c r="W42" t="n">
-        <v>8.562864708857717</v>
+        <v>8.354748519166378</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>120.1566676761693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25783,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>94.30595208080227</v>
+        <v>94.22321217577286</v>
       </c>
       <c r="C43" t="n">
-        <v>81.72079299749281</v>
+        <v>81.63805309246339</v>
       </c>
       <c r="D43" t="n">
-        <v>63.08944491707733</v>
+        <v>63.00670501204792</v>
       </c>
       <c r="E43" t="n">
-        <v>60.90793454543414</v>
+        <v>60.82519464040473</v>
       </c>
       <c r="F43" t="n">
-        <v>59.89501992179622</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>82.46495125732373</v>
+        <v>82.38221135229432</v>
       </c>
       <c r="H43" t="n">
-        <v>76.70114440630455</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>54.40904335708375</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>7.833152015537749</v>
+        <v>7.750412110508336</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25828,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.6360151505593592</v>
+        <v>0.5532752455299459</v>
       </c>
       <c r="R43" t="n">
-        <v>91.76736327603446</v>
+        <v>91.68462337100505</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>138.4078300308078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>27.19228912337903</v>
       </c>
       <c r="U43" t="n">
-        <v>200.7930012553559</v>
+        <v>42.97879471473766</v>
       </c>
       <c r="V43" t="n">
-        <v>9.005524871766113</v>
+        <v>166.5288753176636</v>
       </c>
       <c r="W43" t="n">
-        <v>43.39087988452911</v>
+        <v>200.9142303304266</v>
       </c>
       <c r="X43" t="n">
-        <v>140.1836272879021</v>
+        <v>140.1008873828727</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.0586252509598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>329948.6893493219</v>
+        <v>331039.0598634135</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365483.9013236033</v>
+        <v>365249.5857119764</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>453978.7228465114</v>
+        <v>453811.5793421573</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>453978.7228465116</v>
+        <v>453811.5793421573</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>487752.3286230045</v>
+        <v>487418.0416142964</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>605443.0711763441</v>
+        <v>605443.0711763439</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>605443.0711763442</v>
+        <v>605443.0711763439</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>587867.303171591</v>
+        <v>586811.9904518371</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>504152.2663265315</v>
+        <v>504386.5819381582</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811866</v>
+        <v>778312.5217811865</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="D2" t="n">
         <v>778312.5217811863</v>
@@ -26323,34 +26323,34 @@
         <v>242512.4651851795</v>
       </c>
       <c r="F2" t="n">
-        <v>303115.6247920804</v>
+        <v>303988.4782227144</v>
       </c>
       <c r="G2" t="n">
-        <v>334220.9459964924</v>
+        <v>333966.070747981</v>
       </c>
       <c r="H2" t="n">
-        <v>409925.2391805639</v>
+        <v>409726.756269143</v>
       </c>
       <c r="I2" t="n">
-        <v>409925.2391805641</v>
+        <v>409726.7562691431</v>
       </c>
       <c r="J2" t="n">
-        <v>450031.3960401494</v>
+        <v>449634.4302173074</v>
       </c>
       <c r="K2" t="n">
         <v>589789.1528222401</v>
       </c>
       <c r="L2" t="n">
-        <v>589789.1528222403</v>
+        <v>589789.1528222397</v>
       </c>
       <c r="M2" t="n">
-        <v>573694.4498933748</v>
+        <v>573694.4498933747</v>
       </c>
       <c r="N2" t="n">
-        <v>573694.4498933749</v>
+        <v>572808.4936081661</v>
       </c>
       <c r="O2" t="n">
-        <v>485056.5379804895</v>
+        <v>485311.4132290009</v>
       </c>
       <c r="P2" t="n">
         <v>204264.0705097481</v>
@@ -26375,25 +26375,25 @@
         <v>15642.21467594633</v>
       </c>
       <c r="F3" t="n">
-        <v>21255.77341892292</v>
+        <v>21753.96151780395</v>
       </c>
       <c r="G3" t="n">
-        <v>15838.79858111904</v>
+        <v>15264.56026074408</v>
       </c>
       <c r="H3" t="n">
-        <v>44129.45326439814</v>
+        <v>44163.28091438649</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>21367.53290828915</v>
+        <v>21301.34098426562</v>
       </c>
       <c r="K3" t="n">
-        <v>68420.82248090803</v>
+        <v>68487.01440493156</v>
       </c>
       <c r="L3" t="n">
-        <v>1.70530256582424e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415532.5557256226</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>90222.61442700363</v>
+        <v>89410.09452461184</v>
       </c>
       <c r="F4" t="n">
-        <v>126633.4440891329</v>
+        <v>126091.2754150926</v>
       </c>
       <c r="G4" t="n">
-        <v>138789.0083657359</v>
+        <v>137735.6957814163</v>
       </c>
       <c r="H4" t="n">
-        <v>166813.1078369137</v>
+        <v>165510.4048634051</v>
       </c>
       <c r="I4" t="n">
-        <v>166813.1078369138</v>
+        <v>165510.4048634051</v>
       </c>
       <c r="J4" t="n">
-        <v>190940.1417987317</v>
+        <v>189518.035613356</v>
       </c>
       <c r="K4" t="n">
-        <v>275031.9162557056</v>
+        <v>273848.616494064</v>
       </c>
       <c r="L4" t="n">
-        <v>275031.9162557055</v>
+        <v>273848.616494064</v>
       </c>
       <c r="M4" t="n">
-        <v>268195.963281507</v>
+        <v>267056.4187277206</v>
       </c>
       <c r="N4" t="n">
-        <v>268195.963281507</v>
+        <v>266745.7471774269</v>
       </c>
       <c r="O4" t="n">
-        <v>221281.4269253163</v>
+        <v>220379.7524159607</v>
       </c>
       <c r="P4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26479,34 @@
         <v>2397.621796901122</v>
       </c>
       <c r="F5" t="n">
-        <v>4631.311316345411</v>
+        <v>4744.11528646316</v>
       </c>
       <c r="G5" t="n">
-        <v>8144.816082137178</v>
+        <v>8130.237342953811</v>
       </c>
       <c r="H5" t="n">
-        <v>17896.02560680688</v>
+        <v>17889.06974573097</v>
       </c>
       <c r="I5" t="n">
-        <v>17896.02560680688</v>
+        <v>17889.06974573097</v>
       </c>
       <c r="J5" t="n">
-        <v>19301.55141962302</v>
+        <v>19287.63969747118</v>
       </c>
       <c r="K5" t="n">
-        <v>24257.94955661305</v>
+        <v>24257.94955661304</v>
       </c>
       <c r="L5" t="n">
-        <v>24257.94955661305</v>
+        <v>24257.94955661304</v>
       </c>
       <c r="M5" t="n">
         <v>22531.47662064614</v>
       </c>
       <c r="N5" t="n">
-        <v>22531.47662064614</v>
+        <v>22411.71678945247</v>
       </c>
       <c r="O5" t="n">
-        <v>16772.53794977067</v>
+        <v>16787.11668895404</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>329152.3660555641</v>
+        <v>329912.5231682276</v>
       </c>
       <c r="C6" t="n">
-        <v>329152.3660555639</v>
+        <v>329912.5231682275</v>
       </c>
       <c r="D6" t="n">
-        <v>329152.3660555639</v>
+        <v>329912.5231682275</v>
       </c>
       <c r="E6" t="n">
-        <v>134250.0142853284</v>
+        <v>135062.5341877202</v>
       </c>
       <c r="F6" t="n">
-        <v>150595.0959676792</v>
+        <v>151399.1260033547</v>
       </c>
       <c r="G6" t="n">
-        <v>171448.3229675003</v>
+        <v>172835.5773628669</v>
       </c>
       <c r="H6" t="n">
-        <v>181086.6524724452</v>
+        <v>182164.0007456205</v>
       </c>
       <c r="I6" t="n">
-        <v>225216.1057368434</v>
+        <v>226327.2816600071</v>
       </c>
       <c r="J6" t="n">
-        <v>218422.1699135055</v>
+        <v>219527.4139222146</v>
       </c>
       <c r="K6" t="n">
-        <v>222078.4645290135</v>
+        <v>223195.5723666315</v>
       </c>
       <c r="L6" t="n">
-        <v>290499.2870099217</v>
+        <v>291682.5867715626</v>
       </c>
       <c r="M6" t="n">
-        <v>282967.0099912217</v>
+        <v>284106.554545008</v>
       </c>
       <c r="N6" t="n">
-        <v>282967.0099912218</v>
+        <v>283651.0296412867</v>
       </c>
       <c r="O6" t="n">
-        <v>247002.5731054025</v>
+        <v>248144.5441240861</v>
       </c>
       <c r="P6" t="n">
-        <v>133624.0998016443</v>
+        <v>134384.2569143079</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="G2" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="H2" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="I2" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="J2" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="K2" t="n">
         <v>114.2428337776276</v>
@@ -26722,7 +26722,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26799,10 +26799,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G4" t="n">
-        <v>83.40819852673224</v>
+        <v>83.28282224207027</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26820,13 +26820,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="M4" t="n">
-        <v>215.3939976830283</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>215.3939976830283</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="O4" t="n">
-        <v>157.6060903509269</v>
+        <v>157.7314666355888</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26917,25 +26917,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>26.56971677365365</v>
+        <v>26.48697686862425</v>
       </c>
       <c r="G2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.007389541131161</v>
+        <v>2.00738954113114</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.70941613536144</v>
+        <v>26.62667623033202</v>
       </c>
       <c r="K2" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="L2" t="n">
-        <v>2.131628207280301e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27021,13 +27021,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.969734065685305</v>
       </c>
       <c r="G4" t="n">
-        <v>57.7879073321014</v>
+        <v>55.69279698175413</v>
       </c>
       <c r="H4" t="n">
-        <v>157.6060903509268</v>
+        <v>157.7314666355888</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>26.56971677365365</v>
+        <v>26.48697686862425</v>
       </c>
       <c r="L2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.007389541131161</v>
+        <v>2.00738954113114</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.70941613536144</v>
+        <v>26.62667623033202</v>
       </c>
       <c r="P2" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
     </row>
     <row r="3">
@@ -27267,13 +27267,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.969734065685305</v>
       </c>
       <c r="O4" t="n">
-        <v>57.7879073321014</v>
+        <v>55.69279698175413</v>
       </c>
       <c r="P4" t="n">
-        <v>157.6060903509268</v>
+        <v>157.7314666355888</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="C14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="D14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="E14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="F14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="G14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="H14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="I14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="S14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="T14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="U14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="V14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="W14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="X14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="Y14" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="C15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="D15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="E15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="F15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="G15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="H15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="I15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="S15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="T15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="U15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="V15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="W15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="X15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="Y15" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="C16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="D16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="E16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="F16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="G16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="H16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="I16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="J16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28524,34 +28524,34 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>4.611589586016663</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="R16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="S16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="T16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="U16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="V16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="W16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="X16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.56041598819846</v>
+        <v>36.47767608316905</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="C17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="D17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="E17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="F17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="G17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="H17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="I17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="S17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="T17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="U17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="V17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="W17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="X17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="C18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="D18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="E18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="F18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="G18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="H18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="I18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="S18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="T18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="U18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="V18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="W18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="X18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="Y18" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="C19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="D19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="E19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="F19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="G19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="H19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="I19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="J19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="K19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="L19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="M19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="N19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="O19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="P19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="R19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="S19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="T19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="U19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="V19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="W19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="X19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
       <c r="Y19" t="n">
-        <v>36.56041598819849</v>
+        <v>36.47767608316905</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="C20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="D20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="E20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="F20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="G20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="H20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="I20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="S20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="T20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="U20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="V20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="W20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="X20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="C21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="D21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="E21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="F21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="G21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="H21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="I21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="S21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="T21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="U21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="V21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="W21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="X21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="Y21" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="C22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="D22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="E22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="F22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="G22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="H22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="I22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="J22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="K22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="L22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="M22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="N22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="O22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="P22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="R22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="S22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="T22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="U22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="V22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="W22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="X22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="C23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="D23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="E23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="F23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="G23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="H23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="I23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="S23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="T23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="U23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="V23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="W23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="X23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="Y23" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="C24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="D24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="E24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="F24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="G24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="H24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="I24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="S24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="T24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="U24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="V24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="W24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="X24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="Y24" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="C25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="D25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="E25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="F25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="G25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="H25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="I25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="J25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="K25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="L25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="M25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="N25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="O25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="P25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="R25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="S25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="T25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="U25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="V25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="W25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="X25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
       <c r="Y25" t="n">
-        <v>38.56780552932965</v>
+        <v>38.48506562430019</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="C26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="D26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="E26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="F26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="G26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="H26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="I26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="S26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="T26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="U26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="V26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="W26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="X26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="C27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="D27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="E27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="F27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="G27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="H27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="I27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="S27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="T27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="U27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="V27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="W27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="X27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="C28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="D28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="E28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="F28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="G28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="H28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="I28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="J28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="K28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="L28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="M28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="N28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="O28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="P28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="R28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="S28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="T28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="U28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="V28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="W28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="X28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
       <c r="Y28" t="n">
-        <v>55.28652245014629</v>
+        <v>55.12104264008742</v>
       </c>
     </row>
     <row r="29">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="C41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="D41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="E41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="F41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="G41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="H41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="I41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="S41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="T41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="U41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="V41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="W41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="X41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="Y41" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="C42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="D42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="E42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="F42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="G42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="H42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="I42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="S42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="T42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="U42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="V42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="W42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="X42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="Y42" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="C43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="D43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="E43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="F43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="G43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="H43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="I43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="J43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="K43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="L43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="M43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="N43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="O43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="P43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="R43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="S43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="T43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="U43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="V43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="W43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="X43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.52602810113503</v>
+        <v>85.60876800616444</v>
       </c>
     </row>
     <row r="44">
@@ -35413,16 +35413,16 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="M11" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>25.62029119463083</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="P12" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="P12" t="n">
-        <v>24.58512791403969</v>
       </c>
       <c r="Q12" t="n">
         <v>25.62029119463083</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M14" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>24.58512791403969</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="P15" t="n">
-        <v>24.58512791403969</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,19 +35808,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N16" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.890148850910151</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>83.40819852673224</v>
+        <v>83.28282224207027</v>
       </c>
       <c r="L17" t="n">
-        <v>83.40819852673224</v>
+        <v>83.28282224207027</v>
       </c>
       <c r="M17" t="n">
-        <v>80.03817030342989</v>
+        <v>79.9178597272391</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>83.40819852673224</v>
+        <v>83.28282224207027</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>83.40819852673224</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>83.40819852673224</v>
+        <v>9.822346077411567</v>
       </c>
       <c r="N18" t="n">
-        <v>83.40819852673224</v>
+        <v>83.28282224207027</v>
       </c>
       <c r="O18" t="n">
-        <v>80.03817030342989</v>
+        <v>83.28282224207027</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>83.28282224207027</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>14.29092416231564</v>
+        <v>14.2081842572862</v>
       </c>
       <c r="L19" t="n">
-        <v>64.15044124851462</v>
+        <v>64.0677013434852</v>
       </c>
       <c r="M19" t="n">
-        <v>76.14429295003907</v>
+        <v>76.06155304500965</v>
       </c>
       <c r="N19" t="n">
-        <v>80.69258836742708</v>
+        <v>80.60984846239765</v>
       </c>
       <c r="O19" t="n">
-        <v>61.14554390223817</v>
+        <v>61.06280399720873</v>
       </c>
       <c r="P19" t="n">
-        <v>33.83897525309198</v>
+        <v>33.75623534806254</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>16.2983137034468</v>
+        <v>16.21557379841734</v>
       </c>
       <c r="L22" t="n">
-        <v>66.1578307896458</v>
+        <v>66.07509088461633</v>
       </c>
       <c r="M22" t="n">
-        <v>78.15168249117025</v>
+        <v>78.06894258614078</v>
       </c>
       <c r="N22" t="n">
-        <v>82.69997790855825</v>
+        <v>82.61723800352878</v>
       </c>
       <c r="O22" t="n">
-        <v>63.15293344336933</v>
+        <v>63.07019353833986</v>
       </c>
       <c r="P22" t="n">
-        <v>35.84636479422314</v>
+        <v>35.76362488919368</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
       <c r="P24" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>16.2983137034468</v>
+        <v>16.21557379841734</v>
       </c>
       <c r="L25" t="n">
-        <v>66.1578307896458</v>
+        <v>66.07509088461633</v>
       </c>
       <c r="M25" t="n">
-        <v>78.15168249117025</v>
+        <v>78.06894258614078</v>
       </c>
       <c r="N25" t="n">
-        <v>82.69997790855825</v>
+        <v>82.61723800352878</v>
       </c>
       <c r="O25" t="n">
-        <v>63.15293344336933</v>
+        <v>63.07019353833986</v>
       </c>
       <c r="P25" t="n">
-        <v>35.84636479422314</v>
+        <v>35.76362488919368</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>240.0046611659691</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>33.01703062426343</v>
+        <v>32.85155081420456</v>
       </c>
       <c r="L28" t="n">
-        <v>82.87654771046243</v>
+        <v>82.71106790040355</v>
       </c>
       <c r="M28" t="n">
-        <v>94.87039941198688</v>
+        <v>94.704919601928</v>
       </c>
       <c r="N28" t="n">
-        <v>99.41869482937489</v>
+        <v>99.253215019316</v>
       </c>
       <c r="O28" t="n">
-        <v>79.87165036418597</v>
+        <v>79.70617055412708</v>
       </c>
       <c r="P28" t="n">
-        <v>52.56508171503977</v>
+        <v>52.3996019049809</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.88365366095486</v>
+        <v>20.88365366095482</v>
       </c>
       <c r="K31" t="n">
-        <v>91.97334195174479</v>
+        <v>91.97334195174474</v>
       </c>
       <c r="L31" t="n">
-        <v>141.8328590379438</v>
+        <v>141.8328590379437</v>
       </c>
       <c r="M31" t="n">
         <v>153.8267107394682</v>
@@ -37008,7 +37008,7 @@
         <v>111.5213930425211</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.08079052593325</v>
+        <v>28.08079052593321</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.88365366095485</v>
+        <v>20.88365366095482</v>
       </c>
       <c r="K34" t="n">
-        <v>91.97334195174477</v>
+        <v>91.97334195174474</v>
       </c>
       <c r="L34" t="n">
-        <v>141.8328590379438</v>
+        <v>141.8328590379437</v>
       </c>
       <c r="M34" t="n">
         <v>153.8267107394682</v>
@@ -37245,7 +37245,7 @@
         <v>111.5213930425211</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.08079052593324</v>
+        <v>28.08079052593321</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,13 +37312,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>215.3939976830283</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
-        <v>110.2611618999927</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>53.02927092565796</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>22.20284867224858</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>215.3939976830283</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>215.3939976830283</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O36" t="n">
-        <v>215.3939976830283</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>80.06741185963574</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>6.382862610783728</v>
+        <v>91.118958044716</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>215.3939976830283</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37558,7 +37558,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>215.3939976830283</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="M39" t="n">
-        <v>40.87753466722948</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="O39" t="n">
-        <v>215.3939976830283</v>
+        <v>163.6414497888537</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37783,16 +37783,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>157.6060903509269</v>
+        <v>157.7314666355888</v>
       </c>
       <c r="M41" t="n">
-        <v>157.6060903509269</v>
+        <v>54.33241335300188</v>
       </c>
       <c r="N41" t="n">
-        <v>157.6060903509269</v>
+        <v>157.7314666355888</v>
       </c>
       <c r="O41" t="n">
-        <v>47.182605982281</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>157.6060903509269</v>
+        <v>157.7314666355888</v>
       </c>
       <c r="M42" t="n">
-        <v>157.6060903509269</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>112.1249461713449</v>
+        <v>157.7314666355888</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>112.3706330321975</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>63.25653627525217</v>
+        <v>63.33927618028159</v>
       </c>
       <c r="L43" t="n">
-        <v>113.1160533614512</v>
+        <v>113.1987932664806</v>
       </c>
       <c r="M43" t="n">
-        <v>125.1099050629756</v>
+        <v>125.192644968005</v>
       </c>
       <c r="N43" t="n">
-        <v>129.6582004803636</v>
+        <v>129.740940385393</v>
       </c>
       <c r="O43" t="n">
-        <v>110.1111560151747</v>
+        <v>110.1938959202041</v>
       </c>
       <c r="P43" t="n">
-        <v>82.80458736602851</v>
+        <v>82.88732727105793</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
